--- a/master_thesis/input/MLB_stats_1999.xlsx
+++ b/master_thesis/input/MLB_stats_1999.xlsx
@@ -9,10 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="salary_UST" sheetId="1" r:id="rId1"/>
+    <sheet name="team_standings" sheetId="2" r:id="rId2"/>
+    <sheet name="team_pitching" sheetId="3" r:id="rId3"/>
+    <sheet name="team_batting" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3823" uniqueCount="1164">
   <si>
     <t>RANK</t>
   </si>
@@ -2694,6 +2697,828 @@
   </si>
   <si>
     <t>Nick Johnson</t>
+  </si>
+  <si>
+    <t>Rk</t>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>Lg</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>W-L%</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>Rdiff</t>
+  </si>
+  <si>
+    <t>SOS</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>pythWL</t>
+  </si>
+  <si>
+    <t>Luck</t>
+  </si>
+  <si>
+    <t>Inter</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>ExInn</t>
+  </si>
+  <si>
+    <t>1Run</t>
+  </si>
+  <si>
+    <t>vRHP</t>
+  </si>
+  <si>
+    <t>vLHP</t>
+  </si>
+  <si>
+    <t>â‰¥.500</t>
+  </si>
+  <si>
+    <t>&lt;.500</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>98-64</t>
+  </si>
+  <si>
+    <t>56-25</t>
+  </si>
+  <si>
+    <t>47-34</t>
+  </si>
+  <si>
+    <t>29-21</t>
+  </si>
+  <si>
+    <t>74-44</t>
+  </si>
+  <si>
+    <t>29-15</t>
+  </si>
+  <si>
+    <t>38-20</t>
+  </si>
+  <si>
+    <t>65-39</t>
+  </si>
+  <si>
+    <t>102-60</t>
+  </si>
+  <si>
+    <t>52-29</t>
+  </si>
+  <si>
+    <t>48-33</t>
+  </si>
+  <si>
+    <t>24-24</t>
+  </si>
+  <si>
+    <t>68-46</t>
+  </si>
+  <si>
+    <t>32-16</t>
+  </si>
+  <si>
+    <t>30-27</t>
+  </si>
+  <si>
+    <t>70-35</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>96-66</t>
+  </si>
+  <si>
+    <t>50-31</t>
+  </si>
+  <si>
+    <t>79-50</t>
+  </si>
+  <si>
+    <t>19-14</t>
+  </si>
+  <si>
+    <t>39-26</t>
+  </si>
+  <si>
+    <t>59-38</t>
+  </si>
+  <si>
+    <t>93-69</t>
+  </si>
+  <si>
+    <t>26-19</t>
+  </si>
+  <si>
+    <t>69-50</t>
+  </si>
+  <si>
+    <t>28-15</t>
+  </si>
+  <si>
+    <t>30-35</t>
+  </si>
+  <si>
+    <t>67-30</t>
+  </si>
+  <si>
+    <t>50-32</t>
+  </si>
+  <si>
+    <t>47-33</t>
+  </si>
+  <si>
+    <t>22-18</t>
+  </si>
+  <si>
+    <t>70-49</t>
+  </si>
+  <si>
+    <t>27-16</t>
+  </si>
+  <si>
+    <t>20-30</t>
+  </si>
+  <si>
+    <t>77-35</t>
+  </si>
+  <si>
+    <t>95-68</t>
+  </si>
+  <si>
+    <t>49-32</t>
+  </si>
+  <si>
+    <t>48-34</t>
+  </si>
+  <si>
+    <t>27-19</t>
+  </si>
+  <si>
+    <t>75-48</t>
+  </si>
+  <si>
+    <t>30-31</t>
+  </si>
+  <si>
+    <t>67-35</t>
+  </si>
+  <si>
+    <t>96-67</t>
+  </si>
+  <si>
+    <t>45-37</t>
+  </si>
+  <si>
+    <t>51-30</t>
+  </si>
+  <si>
+    <t>21-24</t>
+  </si>
+  <si>
+    <t>27-17</t>
+  </si>
+  <si>
+    <t>29-27</t>
+  </si>
+  <si>
+    <t>67-40</t>
+  </si>
+  <si>
+    <t>88-74</t>
+  </si>
+  <si>
+    <t>44-37</t>
+  </si>
+  <si>
+    <t>24-16</t>
+  </si>
+  <si>
+    <t>75-57</t>
+  </si>
+  <si>
+    <t>35-27</t>
+  </si>
+  <si>
+    <t>60-40</t>
+  </si>
+  <si>
+    <t>92-70</t>
+  </si>
+  <si>
+    <t>45-36</t>
+  </si>
+  <si>
+    <t>21-20</t>
+  </si>
+  <si>
+    <t>76-51</t>
+  </si>
+  <si>
+    <t>18-17</t>
+  </si>
+  <si>
+    <t>36-28</t>
+  </si>
+  <si>
+    <t>58-40</t>
+  </si>
+  <si>
+    <t>85-77</t>
+  </si>
+  <si>
+    <t>35-46</t>
+  </si>
+  <si>
+    <t>22-19</t>
+  </si>
+  <si>
+    <t>64-58</t>
+  </si>
+  <si>
+    <t>23-17</t>
+  </si>
+  <si>
+    <t>30-33</t>
+  </si>
+  <si>
+    <t>57-42</t>
+  </si>
+  <si>
+    <t>SFG</t>
+  </si>
+  <si>
+    <t>37-44</t>
+  </si>
+  <si>
+    <t>27-23</t>
+  </si>
+  <si>
+    <t>68-48</t>
+  </si>
+  <si>
+    <t>18-28</t>
+  </si>
+  <si>
+    <t>22-35</t>
+  </si>
+  <si>
+    <t>64-41</t>
+  </si>
+  <si>
+    <t>83-79</t>
+  </si>
+  <si>
+    <t>40-41</t>
+  </si>
+  <si>
+    <t>26-18</t>
+  </si>
+  <si>
+    <t>71-63</t>
+  </si>
+  <si>
+    <t>13-15</t>
+  </si>
+  <si>
+    <t>21-41</t>
+  </si>
+  <si>
+    <t>63-37</t>
+  </si>
+  <si>
+    <t>77-85</t>
+  </si>
+  <si>
+    <t>43-38</t>
+  </si>
+  <si>
+    <t>36-45</t>
+  </si>
+  <si>
+    <t>20-23</t>
+  </si>
+  <si>
+    <t>66-61</t>
+  </si>
+  <si>
+    <t>13-22</t>
+  </si>
+  <si>
+    <t>28-42</t>
+  </si>
+  <si>
+    <t>51-41</t>
+  </si>
+  <si>
+    <t>80-81</t>
+  </si>
+  <si>
+    <t>33-47</t>
+  </si>
+  <si>
+    <t>20-22</t>
+  </si>
+  <si>
+    <t>61-53</t>
+  </si>
+  <si>
+    <t>17-30</t>
+  </si>
+  <si>
+    <t>26-36</t>
+  </si>
+  <si>
+    <t>52-47</t>
+  </si>
+  <si>
+    <t>84-78</t>
+  </si>
+  <si>
+    <t>41-40</t>
+  </si>
+  <si>
+    <t>16-26</t>
+  </si>
+  <si>
+    <t>66-69</t>
+  </si>
+  <si>
+    <t>26-51</t>
+  </si>
+  <si>
+    <t>52-33</t>
+  </si>
+  <si>
+    <t>82-80</t>
+  </si>
+  <si>
+    <t>21-27</t>
+  </si>
+  <si>
+    <t>53-60</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>29-36</t>
+  </si>
+  <si>
+    <t>48-49</t>
+  </si>
+  <si>
+    <t>81-81</t>
+  </si>
+  <si>
+    <t>25-19</t>
+  </si>
+  <si>
+    <t>58-63</t>
+  </si>
+  <si>
+    <t>19-22</t>
+  </si>
+  <si>
+    <t>24-43</t>
+  </si>
+  <si>
+    <t>53-42</t>
+  </si>
+  <si>
+    <t>CHW</t>
+  </si>
+  <si>
+    <t>72-89</t>
+  </si>
+  <si>
+    <t>38-42</t>
+  </si>
+  <si>
+    <t>20-19</t>
+  </si>
+  <si>
+    <t>59-75</t>
+  </si>
+  <si>
+    <t>28-41</t>
+  </si>
+  <si>
+    <t>47-45</t>
+  </si>
+  <si>
+    <t>78-83</t>
+  </si>
+  <si>
+    <t>26-27</t>
+  </si>
+  <si>
+    <t>58-57</t>
+  </si>
+  <si>
+    <t>17-29</t>
+  </si>
+  <si>
+    <t>21-36</t>
+  </si>
+  <si>
+    <t>54-50</t>
+  </si>
+  <si>
+    <t>74-87</t>
+  </si>
+  <si>
+    <t>32-48</t>
+  </si>
+  <si>
+    <t>42-39</t>
+  </si>
+  <si>
+    <t>22-27</t>
+  </si>
+  <si>
+    <t>25-35</t>
+  </si>
+  <si>
+    <t>49-52</t>
+  </si>
+  <si>
+    <t>SDP</t>
+  </si>
+  <si>
+    <t>74-88</t>
+  </si>
+  <si>
+    <t>46-35</t>
+  </si>
+  <si>
+    <t>28-53</t>
+  </si>
+  <si>
+    <t>28-25</t>
+  </si>
+  <si>
+    <t>59-56</t>
+  </si>
+  <si>
+    <t>15-32</t>
+  </si>
+  <si>
+    <t>21-46</t>
+  </si>
+  <si>
+    <t>72-90</t>
+  </si>
+  <si>
+    <t>39-42</t>
+  </si>
+  <si>
+    <t>33-48</t>
+  </si>
+  <si>
+    <t>24-23</t>
+  </si>
+  <si>
+    <t>49-62</t>
+  </si>
+  <si>
+    <t>23-28</t>
+  </si>
+  <si>
+    <t>25-42</t>
+  </si>
+  <si>
+    <t>47-48</t>
+  </si>
+  <si>
+    <t>ANA</t>
+  </si>
+  <si>
+    <t>70-92</t>
+  </si>
+  <si>
+    <t>23-25</t>
+  </si>
+  <si>
+    <t>51-73</t>
+  </si>
+  <si>
+    <t>19-19</t>
+  </si>
+  <si>
+    <t>27-45</t>
+  </si>
+  <si>
+    <t>43-47</t>
+  </si>
+  <si>
+    <t>68-93</t>
+  </si>
+  <si>
+    <t>38-43</t>
+  </si>
+  <si>
+    <t>31-49</t>
+  </si>
+  <si>
+    <t>54-78</t>
+  </si>
+  <si>
+    <t>15-14</t>
+  </si>
+  <si>
+    <t>28-47</t>
+  </si>
+  <si>
+    <t>41-45</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>69-93</t>
+  </si>
+  <si>
+    <t>27-20</t>
+  </si>
+  <si>
+    <t>61-70</t>
+  </si>
+  <si>
+    <t>41-46</t>
+  </si>
+  <si>
+    <t>MON</t>
+  </si>
+  <si>
+    <t>68-94</t>
+  </si>
+  <si>
+    <t>16-28</t>
+  </si>
+  <si>
+    <t>50-73</t>
+  </si>
+  <si>
+    <t>18-21</t>
+  </si>
+  <si>
+    <t>41-49</t>
+  </si>
+  <si>
+    <t>66-96</t>
+  </si>
+  <si>
+    <t>34-47</t>
+  </si>
+  <si>
+    <t>26-24</t>
+  </si>
+  <si>
+    <t>42-73</t>
+  </si>
+  <si>
+    <t>25-22</t>
+  </si>
+  <si>
+    <t>20-41</t>
+  </si>
+  <si>
+    <t>47-54</t>
+  </si>
+  <si>
+    <t>KCR</t>
+  </si>
+  <si>
+    <t>75-86</t>
+  </si>
+  <si>
+    <t>31-50</t>
+  </si>
+  <si>
+    <t>11-32</t>
+  </si>
+  <si>
+    <t>49-80</t>
+  </si>
+  <si>
+    <t>15-17</t>
+  </si>
+  <si>
+    <t>25-44</t>
+  </si>
+  <si>
+    <t>39-53</t>
+  </si>
+  <si>
+    <t>FLA</t>
+  </si>
+  <si>
+    <t>35-45</t>
+  </si>
+  <si>
+    <t>29-53</t>
+  </si>
+  <si>
+    <t>19-25</t>
+  </si>
+  <si>
+    <t>46-77</t>
+  </si>
+  <si>
+    <t>19-50</t>
+  </si>
+  <si>
+    <t>45-48</t>
+  </si>
+  <si>
+    <t>65-95</t>
+  </si>
+  <si>
+    <t>32-47</t>
+  </si>
+  <si>
+    <t>19-26</t>
+  </si>
+  <si>
+    <t>13-24</t>
+  </si>
+  <si>
+    <t>25-47</t>
+  </si>
+  <si>
+    <t>38-50</t>
+  </si>
+  <si>
+    <t>#Bat</t>
+  </si>
+  <si>
+    <t>BatAge</t>
+  </si>
+  <si>
+    <t>R/G</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>RBI</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>OBP</t>
+  </si>
+  <si>
+    <t>SLG</t>
+  </si>
+  <si>
+    <t>OPS</t>
+  </si>
+  <si>
+    <t>OPS+</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>HBP</t>
+  </si>
+  <si>
+    <t>SH</t>
+  </si>
+  <si>
+    <t>IBB</t>
+  </si>
+  <si>
+    <t>LOB</t>
+  </si>
+  <si>
+    <t>#P</t>
+  </si>
+  <si>
+    <t>PAge</t>
+  </si>
+  <si>
+    <t>RA/G</t>
+  </si>
+  <si>
+    <t>ERA</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>GF</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>tSho</t>
+  </si>
+  <si>
+    <t>cSho</t>
+  </si>
+  <si>
+    <t>SV</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>ER</t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>ERA+</t>
+  </si>
+  <si>
+    <t>FIP</t>
+  </si>
+  <si>
+    <t>WHIP</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>HR9</t>
+  </si>
+  <si>
+    <t>BB9</t>
+  </si>
+  <si>
+    <t>SO9</t>
+  </si>
+  <si>
+    <t>SO/W</t>
   </si>
 </sst>
 </file>
@@ -2703,7 +3528,7 @@
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2719,16 +3544,341 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2736,22 +3886,305 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="24" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - アクセント 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - アクセント 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - アクセント 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - アクセント 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="アクセント 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="アクセント 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="アクセント 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="アクセント 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="アクセント 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="アクセント 6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="タイトル" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="チェック セル" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="どちらでもない" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="メモ" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="リンク セル" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="悪い" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="計算" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="警告文" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="見出し 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="見出し 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="見出し 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="見出し 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="集計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="出力" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="説明文" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="入力" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3031,7 +4464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H844"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:H844"/>
     </sheetView>
   </sheetViews>
@@ -24991,4 +26424,8425 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D2" s="4">
+        <v>162</v>
+      </c>
+      <c r="E2" s="4">
+        <v>103</v>
+      </c>
+      <c r="F2" s="4">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H2" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="I2" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L2" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>914</v>
+      </c>
+      <c r="N2" s="4">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5">
+        <v>43352</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>915</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="R2" s="5">
+        <v>43237</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>917</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>918</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>919</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>920</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D3" s="4">
+        <v>162</v>
+      </c>
+      <c r="E3" s="4">
+        <v>100</v>
+      </c>
+      <c r="F3" s="4">
+        <v>62</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H3" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L3" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>922</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-2</v>
+      </c>
+      <c r="O3" s="5">
+        <v>43289</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="R3" s="5">
+        <v>43414</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D4" s="4">
+        <v>162</v>
+      </c>
+      <c r="E4" s="4">
+        <v>98</v>
+      </c>
+      <c r="F4" s="4">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0.8</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="5">
+        <v>43352</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="R4" s="5">
+        <v>43283</v>
+      </c>
+      <c r="S4" s="5">
+        <v>43456</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>933</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>934</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D5" s="4">
+        <v>162</v>
+      </c>
+      <c r="E5" s="4">
+        <v>97</v>
+      </c>
+      <c r="F5" s="4">
+        <v>65</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H5" s="4">
+        <v>6.2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K5" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="L5" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="N5" s="4">
+        <v>4</v>
+      </c>
+      <c r="O5" s="5">
+        <v>43352</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>916</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>932</v>
+      </c>
+      <c r="R5" s="5">
+        <v>43288</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>940</v>
+      </c>
+      <c r="V5" s="4" t="s">
+        <v>941</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D6" s="4">
+        <v>162</v>
+      </c>
+      <c r="E6" s="4">
+        <v>97</v>
+      </c>
+      <c r="F6" s="4">
+        <v>65</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H6" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>931</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="5">
+        <v>43437</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>943</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>944</v>
+      </c>
+      <c r="R6" s="5">
+        <v>43317</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>946</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="W6" s="4" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D7" s="4">
+        <v>163</v>
+      </c>
+      <c r="E7" s="4">
+        <v>97</v>
+      </c>
+      <c r="F7" s="4">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H7" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K7" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5">
+        <v>43440</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="R7" s="5">
+        <v>43256</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>953</v>
+      </c>
+      <c r="T7" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>955</v>
+      </c>
+      <c r="W7" s="4" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D8" s="4">
+        <v>163</v>
+      </c>
+      <c r="E8" s="4">
+        <v>96</v>
+      </c>
+      <c r="F8" s="4">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="H8" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="N8" s="4">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>43289</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="R8" s="5">
+        <v>43347</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>939</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>961</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D9" s="4">
+        <v>162</v>
+      </c>
+      <c r="E9" s="4">
+        <v>95</v>
+      </c>
+      <c r="F9" s="4">
+        <v>67</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H9" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="K9" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L9" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="N9" s="4">
+        <v>7</v>
+      </c>
+      <c r="O9" s="5">
+        <v>43381</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="R9" s="5">
+        <v>43253</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="U9" s="5">
+        <v>43393</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>968</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D10" s="4">
+        <v>162</v>
+      </c>
+      <c r="E10" s="4">
+        <v>94</v>
+      </c>
+      <c r="F10" s="4">
+        <v>68</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H10" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="K10" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="5">
+        <v>43263</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="R10" s="5">
+        <v>43194</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="U10" s="4" t="s">
+        <v>974</v>
+      </c>
+      <c r="V10" s="4" t="s">
+        <v>975</v>
+      </c>
+      <c r="W10" s="4" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D11" s="4">
+        <v>162</v>
+      </c>
+      <c r="E11" s="4">
+        <v>87</v>
+      </c>
+      <c r="F11" s="4">
+        <v>75</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K11" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="5">
+        <v>43440</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="R11" s="5">
+        <v>43166</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="U11" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="V11" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="W11" s="4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D12" s="4">
+        <v>162</v>
+      </c>
+      <c r="E12" s="4">
+        <v>86</v>
+      </c>
+      <c r="F12" s="4">
+        <v>76</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H12" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L12" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>43289</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="R12" s="5">
+        <v>43288</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="T12" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="U12" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>989</v>
+      </c>
+      <c r="W12" s="4" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D13" s="4">
+        <v>162</v>
+      </c>
+      <c r="E13" s="4">
+        <v>84</v>
+      </c>
+      <c r="F13" s="4">
+        <v>78</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="K13" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L13" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>991</v>
+      </c>
+      <c r="N13" s="4">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>43352</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="R13" s="5">
+        <v>43254</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="U13" s="4" t="s">
+        <v>995</v>
+      </c>
+      <c r="V13" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="W13" s="4" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D14" s="4">
+        <v>162</v>
+      </c>
+      <c r="E14" s="4">
+        <v>79</v>
+      </c>
+      <c r="F14" s="4">
+        <v>83</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H14" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="K14" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L14" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="N14" s="4">
+        <v>2</v>
+      </c>
+      <c r="O14" s="5">
+        <v>43292</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>999</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R14" s="5">
+        <v>43226</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>1001</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>1002</v>
+      </c>
+      <c r="U14" s="4" t="s">
+        <v>1003</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>1004</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D15" s="4">
+        <v>161</v>
+      </c>
+      <c r="E15" s="4">
+        <v>78</v>
+      </c>
+      <c r="F15" s="4">
+        <v>83</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H15" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="I15" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>1006</v>
+      </c>
+      <c r="N15" s="4">
+        <v>-2</v>
+      </c>
+      <c r="O15" s="5">
+        <v>43289</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="R15" s="5">
+        <v>43347</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>1008</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>1009</v>
+      </c>
+      <c r="U15" s="4" t="s">
+        <v>1010</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>1011</v>
+      </c>
+      <c r="W15" s="4" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D16" s="4">
+        <v>162</v>
+      </c>
+      <c r="E16" s="4">
+        <v>78</v>
+      </c>
+      <c r="F16" s="4">
+        <v>84</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H16" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="I16" s="4">
+        <v>5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="K16" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>1013</v>
+      </c>
+      <c r="N16" s="4">
+        <v>-6</v>
+      </c>
+      <c r="O16" s="5">
+        <v>43411</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="R16" s="5">
+        <v>43318</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>1015</v>
+      </c>
+      <c r="T16" s="4" t="s">
+        <v>1016</v>
+      </c>
+      <c r="U16" s="5">
+        <v>43449</v>
+      </c>
+      <c r="V16" s="4" t="s">
+        <v>1017</v>
+      </c>
+      <c r="W16" s="4" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D17" s="4">
+        <v>162</v>
+      </c>
+      <c r="E17" s="4">
+        <v>77</v>
+      </c>
+      <c r="F17" s="4">
+        <v>85</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I17" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L17" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>1019</v>
+      </c>
+      <c r="N17" s="4">
+        <v>-5</v>
+      </c>
+      <c r="O17" s="5">
+        <v>43319</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="R17" s="5">
+        <v>43202</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="U17" s="4" t="s">
+        <v>1022</v>
+      </c>
+      <c r="V17" s="4" t="s">
+        <v>1023</v>
+      </c>
+      <c r="W17" s="4" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D18" s="4">
+        <v>162</v>
+      </c>
+      <c r="E18" s="4">
+        <v>77</v>
+      </c>
+      <c r="F18" s="4">
+        <v>85</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H18" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>0</v>
+      </c>
+      <c r="K18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L18" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>1025</v>
+      </c>
+      <c r="N18" s="4">
+        <v>-4</v>
+      </c>
+      <c r="O18" s="5">
+        <v>43411</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>1014</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R18" s="5">
+        <v>43199</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>1026</v>
+      </c>
+      <c r="T18" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="U18" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>1029</v>
+      </c>
+      <c r="W18" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D19" s="4">
+        <v>162</v>
+      </c>
+      <c r="E19" s="4">
+        <v>75</v>
+      </c>
+      <c r="F19" s="4">
+        <v>86</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="I19" s="4">
+        <v>5.4</v>
+      </c>
+      <c r="J19" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="K19" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L19" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="N19" s="4">
+        <v>3</v>
+      </c>
+      <c r="O19" s="5">
+        <v>43352</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="R19" s="5">
+        <v>43260</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="T19" s="4" t="s">
+        <v>1035</v>
+      </c>
+      <c r="U19" s="5">
+        <v>43420</v>
+      </c>
+      <c r="V19" s="4" t="s">
+        <v>1036</v>
+      </c>
+      <c r="W19" s="4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D20" s="4">
+        <v>161</v>
+      </c>
+      <c r="E20" s="4">
+        <v>75</v>
+      </c>
+      <c r="F20" s="4">
+        <v>86</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H20" s="4">
+        <v>5</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="L20" s="4">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="N20" s="4">
+        <v>-3</v>
+      </c>
+      <c r="O20" s="5">
+        <v>43289</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="R20" s="5">
+        <v>43351</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>1039</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>1040</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>1041</v>
+      </c>
+      <c r="V20" s="4" t="s">
+        <v>1042</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D21" s="4">
+        <v>161</v>
+      </c>
+      <c r="E21" s="4">
+        <v>74</v>
+      </c>
+      <c r="F21" s="4">
+        <v>87</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="H21" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="I21" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="K21" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L21" s="4">
+        <v>-0.3</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>1044</v>
+      </c>
+      <c r="N21" s="4">
+        <v>0</v>
+      </c>
+      <c r="O21" s="5">
+        <v>43318</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>1045</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>1046</v>
+      </c>
+      <c r="R21" s="5">
+        <v>43321</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>1047</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>1021</v>
+      </c>
+      <c r="U21" s="4" t="s">
+        <v>1020</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>1048</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D22" s="4">
+        <v>162</v>
+      </c>
+      <c r="E22" s="4">
+        <v>74</v>
+      </c>
+      <c r="F22" s="4">
+        <v>88</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H22" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I22" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="K22" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L22" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>1051</v>
+      </c>
+      <c r="N22" s="4">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>43408</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R22" s="5">
+        <v>43257</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>1054</v>
+      </c>
+      <c r="T22" s="4" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>1056</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>1057</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D23" s="4">
+        <v>162</v>
+      </c>
+      <c r="E23" s="4">
+        <v>72</v>
+      </c>
+      <c r="F23" s="4">
+        <v>90</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="I23" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="K23" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L23" s="4">
+        <v>-0.5</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>1058</v>
+      </c>
+      <c r="N23" s="4">
+        <v>0</v>
+      </c>
+      <c r="O23" s="5">
+        <v>43198</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>1059</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R23" s="5">
+        <v>43196</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>1061</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U23" s="4" t="s">
+        <v>1063</v>
+      </c>
+      <c r="V23" s="4" t="s">
+        <v>1064</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D24" s="4">
+        <v>162</v>
+      </c>
+      <c r="E24" s="4">
+        <v>70</v>
+      </c>
+      <c r="F24" s="4">
+        <v>92</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.432</v>
+      </c>
+      <c r="H24" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I24" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J24" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="K24" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L24" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>1067</v>
+      </c>
+      <c r="N24" s="4">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5">
+        <v>43263</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R24" s="5">
+        <v>43198</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>1068</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>1069</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>1070</v>
+      </c>
+      <c r="V24" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D25" s="4">
+        <v>161</v>
+      </c>
+      <c r="E25" s="4">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4">
+        <v>92</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H25" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I25" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J25" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="K25" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="L25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>1073</v>
+      </c>
+      <c r="N25" s="4">
+        <v>1</v>
+      </c>
+      <c r="O25" s="5">
+        <v>43322</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>1075</v>
+      </c>
+      <c r="R25" s="5">
+        <v>43225</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="T25" s="4" t="s">
+        <v>1076</v>
+      </c>
+      <c r="U25" s="4" t="s">
+        <v>1077</v>
+      </c>
+      <c r="V25" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D26" s="4">
+        <v>162</v>
+      </c>
+      <c r="E26" s="4">
+        <v>69</v>
+      </c>
+      <c r="F26" s="4">
+        <v>93</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H26" s="4">
+        <v>4.8</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-0.9</v>
+      </c>
+      <c r="K26" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>1081</v>
+      </c>
+      <c r="N26" s="4">
+        <v>0</v>
+      </c>
+      <c r="O26" s="5">
+        <v>43204</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>1000</v>
+      </c>
+      <c r="R26" s="5">
+        <v>43165</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>1082</v>
+      </c>
+      <c r="T26" s="4" t="s">
+        <v>1083</v>
+      </c>
+      <c r="U26" s="5">
+        <v>43335</v>
+      </c>
+      <c r="V26" s="4" t="s">
+        <v>1078</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D27" s="4">
+        <v>162</v>
+      </c>
+      <c r="E27" s="4">
+        <v>68</v>
+      </c>
+      <c r="F27" s="4">
+        <v>94</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.42</v>
+      </c>
+      <c r="H27" s="4">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="K27" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L27" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>1086</v>
+      </c>
+      <c r="N27" s="4">
+        <v>0</v>
+      </c>
+      <c r="O27" s="5">
+        <v>43322</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>978</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R27" s="5">
+        <v>43170</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>1087</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="U27" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="V27" s="4" t="s">
+        <v>1071</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D28" s="4">
+        <v>162</v>
+      </c>
+      <c r="E28" s="4">
+        <v>67</v>
+      </c>
+      <c r="F28" s="4">
+        <v>95</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H28" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="K28" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="L28" s="4">
+        <v>-0.8</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N28" s="4">
+        <v>1</v>
+      </c>
+      <c r="O28" s="5">
+        <v>43260</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>1092</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R28" s="5">
+        <v>43226</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>1093</v>
+      </c>
+      <c r="T28" s="4" t="s">
+        <v>1094</v>
+      </c>
+      <c r="U28" s="4" t="s">
+        <v>1095</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>1096</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D29" s="4">
+        <v>161</v>
+      </c>
+      <c r="E29" s="4">
+        <v>64</v>
+      </c>
+      <c r="F29" s="4">
+        <v>97</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H29" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5.7</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-0.4</v>
+      </c>
+      <c r="K29" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L29" s="4">
+        <v>-0.6</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>1099</v>
+      </c>
+      <c r="N29" s="4">
+        <v>-11</v>
+      </c>
+      <c r="O29" s="5">
+        <v>43263</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>1007</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="R29" s="5">
+        <v>43230</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>1101</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>1102</v>
+      </c>
+      <c r="U29" s="4" t="s">
+        <v>1103</v>
+      </c>
+      <c r="V29" s="4" t="s">
+        <v>1104</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="D30" s="4">
+        <v>162</v>
+      </c>
+      <c r="E30" s="4">
+        <v>64</v>
+      </c>
+      <c r="F30" s="4">
+        <v>98</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H30" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="J30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K30" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="L30" s="4">
+        <v>-0.7</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>1091</v>
+      </c>
+      <c r="N30" s="4">
+        <v>-2</v>
+      </c>
+      <c r="O30" s="5">
+        <v>43411</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>1107</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>1108</v>
+      </c>
+      <c r="R30" s="5">
+        <v>43255</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>1109</v>
+      </c>
+      <c r="T30" s="4" t="s">
+        <v>1110</v>
+      </c>
+      <c r="U30" s="4" t="s">
+        <v>1089</v>
+      </c>
+      <c r="V30" s="4" t="s">
+        <v>1111</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>930</v>
+      </c>
+      <c r="D31" s="4">
+        <v>161</v>
+      </c>
+      <c r="E31" s="4">
+        <v>63</v>
+      </c>
+      <c r="F31" s="4">
+        <v>97</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H31" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="I31" s="4">
+        <v>5.2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="K31" s="4">
+        <v>-0.2</v>
+      </c>
+      <c r="L31" s="4">
+        <v>-1.2</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>1113</v>
+      </c>
+      <c r="N31" s="4">
+        <v>-2</v>
+      </c>
+      <c r="O31" s="5">
+        <v>43380</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>1100</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>1114</v>
+      </c>
+      <c r="R31" s="5">
+        <v>43256</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>1115</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>1088</v>
+      </c>
+      <c r="U31" s="4" t="s">
+        <v>1116</v>
+      </c>
+      <c r="V31" s="4" t="s">
+        <v>1117</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AJ31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:AJ31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1143</v>
+      </c>
+      <c r="E1" t="s">
+        <v>894</v>
+      </c>
+      <c r="F1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1" t="s">
+        <v>896</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I1" t="s">
+        <v>893</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1146</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1148</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1150</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="R1" t="s">
+        <v>897</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1152</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1156</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>1158</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>1160</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>1161</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>31.5</v>
+      </c>
+      <c r="D2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E2">
+        <v>70</v>
+      </c>
+      <c r="F2">
+        <v>92</v>
+      </c>
+      <c r="G2">
+        <v>0.432</v>
+      </c>
+      <c r="H2">
+        <v>4.79</v>
+      </c>
+      <c r="I2">
+        <v>162</v>
+      </c>
+      <c r="J2">
+        <v>162</v>
+      </c>
+      <c r="K2">
+        <v>158</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>37</v>
+      </c>
+      <c r="P2">
+        <v>1431.1</v>
+      </c>
+      <c r="Q2">
+        <v>1472</v>
+      </c>
+      <c r="R2">
+        <v>826</v>
+      </c>
+      <c r="S2">
+        <v>762</v>
+      </c>
+      <c r="T2">
+        <v>177</v>
+      </c>
+      <c r="U2">
+        <v>624</v>
+      </c>
+      <c r="V2">
+        <v>17</v>
+      </c>
+      <c r="W2">
+        <v>877</v>
+      </c>
+      <c r="X2">
+        <v>56</v>
+      </c>
+      <c r="Y2">
+        <v>5</v>
+      </c>
+      <c r="Z2">
+        <v>65</v>
+      </c>
+      <c r="AA2">
+        <v>6258</v>
+      </c>
+      <c r="AB2">
+        <v>101</v>
+      </c>
+      <c r="AC2">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AD2">
+        <v>1.464</v>
+      </c>
+      <c r="AE2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AF2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG2">
+        <v>3.9</v>
+      </c>
+      <c r="AH2">
+        <v>5.5</v>
+      </c>
+      <c r="AI2">
+        <v>1.41</v>
+      </c>
+      <c r="AJ2">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>30.6</v>
+      </c>
+      <c r="D3">
+        <v>4.17</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>0.61699999999999999</v>
+      </c>
+      <c r="H3">
+        <v>3.77</v>
+      </c>
+      <c r="I3">
+        <v>162</v>
+      </c>
+      <c r="J3">
+        <v>162</v>
+      </c>
+      <c r="K3">
+        <v>146</v>
+      </c>
+      <c r="L3">
+        <v>16</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>42</v>
+      </c>
+      <c r="P3">
+        <v>1467.1</v>
+      </c>
+      <c r="Q3">
+        <v>1387</v>
+      </c>
+      <c r="R3">
+        <v>676</v>
+      </c>
+      <c r="S3">
+        <v>615</v>
+      </c>
+      <c r="T3">
+        <v>176</v>
+      </c>
+      <c r="U3">
+        <v>543</v>
+      </c>
+      <c r="V3">
+        <v>48</v>
+      </c>
+      <c r="W3">
+        <v>1198</v>
+      </c>
+      <c r="X3">
+        <v>49</v>
+      </c>
+      <c r="Y3">
+        <v>10</v>
+      </c>
+      <c r="Z3">
+        <v>39</v>
+      </c>
+      <c r="AA3">
+        <v>6233</v>
+      </c>
+      <c r="AB3">
+        <v>122</v>
+      </c>
+      <c r="AC3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="AD3">
+        <v>1.3149999999999999</v>
+      </c>
+      <c r="AE3">
+        <v>8.5</v>
+      </c>
+      <c r="AF3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG3">
+        <v>3.3</v>
+      </c>
+      <c r="AH3">
+        <v>7.3</v>
+      </c>
+      <c r="AI3">
+        <v>2.21</v>
+      </c>
+      <c r="AJ3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>28.6</v>
+      </c>
+      <c r="D4">
+        <v>4.08</v>
+      </c>
+      <c r="E4">
+        <v>103</v>
+      </c>
+      <c r="F4">
+        <v>59</v>
+      </c>
+      <c r="G4">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="H4">
+        <v>3.63</v>
+      </c>
+      <c r="I4">
+        <v>162</v>
+      </c>
+      <c r="J4">
+        <v>162</v>
+      </c>
+      <c r="K4">
+        <v>153</v>
+      </c>
+      <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>9</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>45</v>
+      </c>
+      <c r="P4">
+        <v>1471</v>
+      </c>
+      <c r="Q4">
+        <v>1398</v>
+      </c>
+      <c r="R4">
+        <v>661</v>
+      </c>
+      <c r="S4">
+        <v>593</v>
+      </c>
+      <c r="T4">
+        <v>142</v>
+      </c>
+      <c r="U4">
+        <v>507</v>
+      </c>
+      <c r="V4">
+        <v>55</v>
+      </c>
+      <c r="W4">
+        <v>1197</v>
+      </c>
+      <c r="X4">
+        <v>26</v>
+      </c>
+      <c r="Y4">
+        <v>3</v>
+      </c>
+      <c r="Z4">
+        <v>34</v>
+      </c>
+      <c r="AA4">
+        <v>6218</v>
+      </c>
+      <c r="AB4">
+        <v>123</v>
+      </c>
+      <c r="AC4">
+        <v>3.85</v>
+      </c>
+      <c r="AD4">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="AE4">
+        <v>8.6</v>
+      </c>
+      <c r="AF4">
+        <v>0.9</v>
+      </c>
+      <c r="AG4">
+        <v>3.1</v>
+      </c>
+      <c r="AH4">
+        <v>7.3</v>
+      </c>
+      <c r="AI4">
+        <v>2.36</v>
+      </c>
+      <c r="AJ4">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+      <c r="C5">
+        <v>30.1</v>
+      </c>
+      <c r="D5">
+        <v>5.03</v>
+      </c>
+      <c r="E5">
+        <v>78</v>
+      </c>
+      <c r="F5">
+        <v>84</v>
+      </c>
+      <c r="G5">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H5">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I5">
+        <v>162</v>
+      </c>
+      <c r="J5">
+        <v>162</v>
+      </c>
+      <c r="K5">
+        <v>145</v>
+      </c>
+      <c r="L5">
+        <v>17</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>33</v>
+      </c>
+      <c r="P5">
+        <v>1435</v>
+      </c>
+      <c r="Q5">
+        <v>1468</v>
+      </c>
+      <c r="R5">
+        <v>815</v>
+      </c>
+      <c r="S5">
+        <v>760</v>
+      </c>
+      <c r="T5">
+        <v>198</v>
+      </c>
+      <c r="U5">
+        <v>647</v>
+      </c>
+      <c r="V5">
+        <v>34</v>
+      </c>
+      <c r="W5">
+        <v>982</v>
+      </c>
+      <c r="X5">
+        <v>49</v>
+      </c>
+      <c r="Y5">
+        <v>6</v>
+      </c>
+      <c r="Z5">
+        <v>55</v>
+      </c>
+      <c r="AA5">
+        <v>6259</v>
+      </c>
+      <c r="AB5">
+        <v>97</v>
+      </c>
+      <c r="AC5">
+        <v>5.01</v>
+      </c>
+      <c r="AD5">
+        <v>1.474</v>
+      </c>
+      <c r="AE5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF5">
+        <v>1.2</v>
+      </c>
+      <c r="AG5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH5">
+        <v>6.2</v>
+      </c>
+      <c r="AI5">
+        <v>1.52</v>
+      </c>
+      <c r="AJ5">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>30.1</v>
+      </c>
+      <c r="D6">
+        <v>4.43</v>
+      </c>
+      <c r="E6">
+        <v>94</v>
+      </c>
+      <c r="F6">
+        <v>68</v>
+      </c>
+      <c r="G6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>162</v>
+      </c>
+      <c r="J6">
+        <v>162</v>
+      </c>
+      <c r="K6">
+        <v>156</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>12</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>50</v>
+      </c>
+      <c r="P6">
+        <v>1436.2</v>
+      </c>
+      <c r="Q6">
+        <v>1396</v>
+      </c>
+      <c r="R6">
+        <v>718</v>
+      </c>
+      <c r="S6">
+        <v>638</v>
+      </c>
+      <c r="T6">
+        <v>160</v>
+      </c>
+      <c r="U6">
+        <v>469</v>
+      </c>
+      <c r="V6">
+        <v>25</v>
+      </c>
+      <c r="W6">
+        <v>1131</v>
+      </c>
+      <c r="X6">
+        <v>55</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>28</v>
+      </c>
+      <c r="AA6">
+        <v>6120</v>
+      </c>
+      <c r="AB6">
+        <v>126</v>
+      </c>
+      <c r="AC6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AD6">
+        <v>1.298</v>
+      </c>
+      <c r="AE6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>2.9</v>
+      </c>
+      <c r="AH6">
+        <v>7.1</v>
+      </c>
+      <c r="AI6">
+        <v>2.41</v>
+      </c>
+      <c r="AJ6">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7">
+        <v>28.8</v>
+      </c>
+      <c r="D7">
+        <v>5.68</v>
+      </c>
+      <c r="E7">
+        <v>67</v>
+      </c>
+      <c r="F7">
+        <v>95</v>
+      </c>
+      <c r="G7">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="H7">
+        <v>5.27</v>
+      </c>
+      <c r="I7">
+        <v>162</v>
+      </c>
+      <c r="J7">
+        <v>162</v>
+      </c>
+      <c r="K7">
+        <v>151</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>32</v>
+      </c>
+      <c r="P7">
+        <v>1430.2</v>
+      </c>
+      <c r="Q7">
+        <v>1619</v>
+      </c>
+      <c r="R7">
+        <v>920</v>
+      </c>
+      <c r="S7">
+        <v>837</v>
+      </c>
+      <c r="T7">
+        <v>221</v>
+      </c>
+      <c r="U7">
+        <v>529</v>
+      </c>
+      <c r="V7">
+        <v>48</v>
+      </c>
+      <c r="W7">
+        <v>980</v>
+      </c>
+      <c r="X7">
+        <v>27</v>
+      </c>
+      <c r="Y7">
+        <v>9</v>
+      </c>
+      <c r="Z7">
+        <v>59</v>
+      </c>
+      <c r="AA7">
+        <v>6359</v>
+      </c>
+      <c r="AB7">
+        <v>86</v>
+      </c>
+      <c r="AC7">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AD7">
+        <v>1.5009999999999999</v>
+      </c>
+      <c r="AE7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AF7">
+        <v>1.4</v>
+      </c>
+      <c r="AG7">
+        <v>3.3</v>
+      </c>
+      <c r="AH7">
+        <v>6.2</v>
+      </c>
+      <c r="AI7">
+        <v>1.85</v>
+      </c>
+      <c r="AJ7">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>26.4</v>
+      </c>
+      <c r="D8">
+        <v>5.37</v>
+      </c>
+      <c r="E8">
+        <v>75</v>
+      </c>
+      <c r="F8">
+        <v>86</v>
+      </c>
+      <c r="G8">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H8">
+        <v>4.92</v>
+      </c>
+      <c r="I8">
+        <v>162</v>
+      </c>
+      <c r="J8">
+        <v>162</v>
+      </c>
+      <c r="K8">
+        <v>156</v>
+      </c>
+      <c r="L8">
+        <v>6</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>39</v>
+      </c>
+      <c r="P8">
+        <v>1438.1</v>
+      </c>
+      <c r="Q8">
+        <v>1608</v>
+      </c>
+      <c r="R8">
+        <v>870</v>
+      </c>
+      <c r="S8">
+        <v>786</v>
+      </c>
+      <c r="T8">
+        <v>210</v>
+      </c>
+      <c r="U8">
+        <v>596</v>
+      </c>
+      <c r="V8">
+        <v>31</v>
+      </c>
+      <c r="W8">
+        <v>968</v>
+      </c>
+      <c r="X8">
+        <v>61</v>
+      </c>
+      <c r="Y8">
+        <v>9</v>
+      </c>
+      <c r="Z8">
+        <v>60</v>
+      </c>
+      <c r="AA8">
+        <v>6452</v>
+      </c>
+      <c r="AB8">
+        <v>100</v>
+      </c>
+      <c r="AC8">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="AD8">
+        <v>1.532</v>
+      </c>
+      <c r="AE8">
+        <v>10.1</v>
+      </c>
+      <c r="AF8">
+        <v>1.3</v>
+      </c>
+      <c r="AG8">
+        <v>3.7</v>
+      </c>
+      <c r="AH8">
+        <v>6.1</v>
+      </c>
+      <c r="AI8">
+        <v>1.62</v>
+      </c>
+      <c r="AJ8">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E9">
+        <v>96</v>
+      </c>
+      <c r="F9">
+        <v>67</v>
+      </c>
+      <c r="G9">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="H9">
+        <v>3.98</v>
+      </c>
+      <c r="I9">
+        <v>163</v>
+      </c>
+      <c r="J9">
+        <v>163</v>
+      </c>
+      <c r="K9">
+        <v>157</v>
+      </c>
+      <c r="L9">
+        <v>6</v>
+      </c>
+      <c r="M9">
+        <v>11</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>55</v>
+      </c>
+      <c r="P9">
+        <v>1462</v>
+      </c>
+      <c r="Q9">
+        <v>1309</v>
+      </c>
+      <c r="R9">
+        <v>711</v>
+      </c>
+      <c r="S9">
+        <v>647</v>
+      </c>
+      <c r="T9">
+        <v>190</v>
+      </c>
+      <c r="U9">
+        <v>636</v>
+      </c>
+      <c r="V9">
+        <v>46</v>
+      </c>
+      <c r="W9">
+        <v>1081</v>
+      </c>
+      <c r="X9">
+        <v>45</v>
+      </c>
+      <c r="Y9">
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>65</v>
+      </c>
+      <c r="AA9">
+        <v>6221</v>
+      </c>
+      <c r="AB9">
+        <v>117</v>
+      </c>
+      <c r="AC9">
+        <v>4.74</v>
+      </c>
+      <c r="AD9">
+        <v>1.33</v>
+      </c>
+      <c r="AE9">
+        <v>8.1</v>
+      </c>
+      <c r="AF9">
+        <v>1.2</v>
+      </c>
+      <c r="AG9">
+        <v>3.9</v>
+      </c>
+      <c r="AH9">
+        <v>6.7</v>
+      </c>
+      <c r="AI9">
+        <v>1.7</v>
+      </c>
+      <c r="AJ9">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>30.6</v>
+      </c>
+      <c r="D10">
+        <v>5.31</v>
+      </c>
+      <c r="E10">
+        <v>97</v>
+      </c>
+      <c r="F10">
+        <v>65</v>
+      </c>
+      <c r="G10">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H10">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I10">
+        <v>162</v>
+      </c>
+      <c r="J10">
+        <v>162</v>
+      </c>
+      <c r="K10">
+        <v>159</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>6</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>46</v>
+      </c>
+      <c r="P10">
+        <v>1450.1</v>
+      </c>
+      <c r="Q10">
+        <v>1503</v>
+      </c>
+      <c r="R10">
+        <v>860</v>
+      </c>
+      <c r="S10">
+        <v>788</v>
+      </c>
+      <c r="T10">
+        <v>197</v>
+      </c>
+      <c r="U10">
+        <v>634</v>
+      </c>
+      <c r="V10">
+        <v>55</v>
+      </c>
+      <c r="W10">
+        <v>1120</v>
+      </c>
+      <c r="X10">
+        <v>54</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>54</v>
+      </c>
+      <c r="AA10">
+        <v>6374</v>
+      </c>
+      <c r="AB10">
+        <v>102</v>
+      </c>
+      <c r="AC10">
+        <v>4.78</v>
+      </c>
+      <c r="AD10">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="AE10">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AF10">
+        <v>1.2</v>
+      </c>
+      <c r="AG10">
+        <v>3.9</v>
+      </c>
+      <c r="AH10">
+        <v>7</v>
+      </c>
+      <c r="AI10">
+        <v>1.77</v>
+      </c>
+      <c r="AJ10">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>28.9</v>
+      </c>
+      <c r="D11">
+        <v>6.35</v>
+      </c>
+      <c r="E11">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>90</v>
+      </c>
+      <c r="G11">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H11">
+        <v>6.01</v>
+      </c>
+      <c r="I11">
+        <v>162</v>
+      </c>
+      <c r="J11">
+        <v>162</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>33</v>
+      </c>
+      <c r="P11">
+        <v>1429</v>
+      </c>
+      <c r="Q11">
+        <v>1700</v>
+      </c>
+      <c r="R11">
+        <v>1028</v>
+      </c>
+      <c r="S11">
+        <v>955</v>
+      </c>
+      <c r="T11">
+        <v>237</v>
+      </c>
+      <c r="U11">
+        <v>737</v>
+      </c>
+      <c r="V11">
+        <v>46</v>
+      </c>
+      <c r="W11">
+        <v>1032</v>
+      </c>
+      <c r="X11">
+        <v>60</v>
+      </c>
+      <c r="Y11">
+        <v>3</v>
+      </c>
+      <c r="Z11">
+        <v>70</v>
+      </c>
+      <c r="AA11">
+        <v>6574</v>
+      </c>
+      <c r="AB11">
+        <v>97</v>
+      </c>
+      <c r="AC11">
+        <v>5.52</v>
+      </c>
+      <c r="AD11">
+        <v>1.7050000000000001</v>
+      </c>
+      <c r="AE11">
+        <v>10.7</v>
+      </c>
+      <c r="AF11">
+        <v>1.5</v>
+      </c>
+      <c r="AG11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AH11">
+        <v>6.5</v>
+      </c>
+      <c r="AI11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ11">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>27.6</v>
+      </c>
+      <c r="D12">
+        <v>5.48</v>
+      </c>
+      <c r="E12">
+        <v>69</v>
+      </c>
+      <c r="F12">
+        <v>92</v>
+      </c>
+      <c r="G12">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="H12">
+        <v>5.17</v>
+      </c>
+      <c r="I12">
+        <v>161</v>
+      </c>
+      <c r="J12">
+        <v>161</v>
+      </c>
+      <c r="K12">
+        <v>157</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12">
+        <v>33</v>
+      </c>
+      <c r="P12">
+        <v>1421</v>
+      </c>
+      <c r="Q12">
+        <v>1528</v>
+      </c>
+      <c r="R12">
+        <v>882</v>
+      </c>
+      <c r="S12">
+        <v>817</v>
+      </c>
+      <c r="T12">
+        <v>209</v>
+      </c>
+      <c r="U12">
+        <v>583</v>
+      </c>
+      <c r="V12">
+        <v>26</v>
+      </c>
+      <c r="W12">
+        <v>976</v>
+      </c>
+      <c r="X12">
+        <v>70</v>
+      </c>
+      <c r="Y12">
+        <v>4</v>
+      </c>
+      <c r="Z12">
+        <v>43</v>
+      </c>
+      <c r="AA12">
+        <v>6286</v>
+      </c>
+      <c r="AB12">
+        <v>94</v>
+      </c>
+      <c r="AC12">
+        <v>5.05</v>
+      </c>
+      <c r="AD12">
+        <v>1.486</v>
+      </c>
+      <c r="AE12">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="AF12">
+        <v>1.3</v>
+      </c>
+      <c r="AG12">
+        <v>3.7</v>
+      </c>
+      <c r="AH12">
+        <v>6.2</v>
+      </c>
+      <c r="AI12">
+        <v>1.67</v>
+      </c>
+      <c r="AJ12">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B13">
+        <v>21</v>
+      </c>
+      <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>5.26</v>
+      </c>
+      <c r="E13">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>98</v>
+      </c>
+      <c r="G13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="H13">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I13">
+        <v>162</v>
+      </c>
+      <c r="J13">
+        <v>162</v>
+      </c>
+      <c r="K13">
+        <v>156</v>
+      </c>
+      <c r="L13">
+        <v>6</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>2</v>
+      </c>
+      <c r="O13">
+        <v>33</v>
+      </c>
+      <c r="P13">
+        <v>1435.2</v>
+      </c>
+      <c r="Q13">
+        <v>1560</v>
+      </c>
+      <c r="R13">
+        <v>852</v>
+      </c>
+      <c r="S13">
+        <v>781</v>
+      </c>
+      <c r="T13">
+        <v>171</v>
+      </c>
+      <c r="U13">
+        <v>655</v>
+      </c>
+      <c r="V13">
+        <v>54</v>
+      </c>
+      <c r="W13">
+        <v>943</v>
+      </c>
+      <c r="X13">
+        <v>54</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13">
+        <v>46</v>
+      </c>
+      <c r="AA13">
+        <v>6389</v>
+      </c>
+      <c r="AB13">
+        <v>88</v>
+      </c>
+      <c r="AC13">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="AD13">
+        <v>1.5429999999999999</v>
+      </c>
+      <c r="AE13">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="AF13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG13">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH13">
+        <v>5.9</v>
+      </c>
+      <c r="AI13">
+        <v>1.44</v>
+      </c>
+      <c r="AJ13">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>27.4</v>
+      </c>
+      <c r="D14">
+        <v>4.17</v>
+      </c>
+      <c r="E14">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>65</v>
+      </c>
+      <c r="G14">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="H14">
+        <v>3.83</v>
+      </c>
+      <c r="I14">
+        <v>162</v>
+      </c>
+      <c r="J14">
+        <v>162</v>
+      </c>
+      <c r="K14">
+        <v>150</v>
+      </c>
+      <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>48</v>
+      </c>
+      <c r="P14">
+        <v>1458.2</v>
+      </c>
+      <c r="Q14">
+        <v>1485</v>
+      </c>
+      <c r="R14">
+        <v>675</v>
+      </c>
+      <c r="S14">
+        <v>620</v>
+      </c>
+      <c r="T14">
+        <v>128</v>
+      </c>
+      <c r="U14">
+        <v>478</v>
+      </c>
+      <c r="V14">
+        <v>17</v>
+      </c>
+      <c r="W14">
+        <v>1204</v>
+      </c>
+      <c r="X14">
+        <v>40</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>54</v>
+      </c>
+      <c r="AA14">
+        <v>6199</v>
+      </c>
+      <c r="AB14">
+        <v>117</v>
+      </c>
+      <c r="AC14">
+        <v>3.69</v>
+      </c>
+      <c r="AD14">
+        <v>1.3460000000000001</v>
+      </c>
+      <c r="AE14">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF14">
+        <v>0.8</v>
+      </c>
+      <c r="AG14">
+        <v>2.9</v>
+      </c>
+      <c r="AH14">
+        <v>7.4</v>
+      </c>
+      <c r="AI14">
+        <v>2.52</v>
+      </c>
+      <c r="AJ14">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="C15">
+        <v>26.9</v>
+      </c>
+      <c r="D15">
+        <v>5.72</v>
+      </c>
+      <c r="E15">
+        <v>64</v>
+      </c>
+      <c r="F15">
+        <v>97</v>
+      </c>
+      <c r="G15">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="H15">
+        <v>5.35</v>
+      </c>
+      <c r="I15">
+        <v>161</v>
+      </c>
+      <c r="J15">
+        <v>161</v>
+      </c>
+      <c r="K15">
+        <v>150</v>
+      </c>
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>29</v>
+      </c>
+      <c r="P15">
+        <v>1420.2</v>
+      </c>
+      <c r="Q15">
+        <v>1607</v>
+      </c>
+      <c r="R15">
+        <v>921</v>
+      </c>
+      <c r="S15">
+        <v>844</v>
+      </c>
+      <c r="T15">
+        <v>202</v>
+      </c>
+      <c r="U15">
+        <v>643</v>
+      </c>
+      <c r="V15">
+        <v>34</v>
+      </c>
+      <c r="W15">
+        <v>831</v>
+      </c>
+      <c r="X15">
+        <v>68</v>
+      </c>
+      <c r="Y15">
+        <v>6</v>
+      </c>
+      <c r="Z15">
+        <v>60</v>
+      </c>
+      <c r="AA15">
+        <v>6387</v>
+      </c>
+      <c r="AB15">
+        <v>93</v>
+      </c>
+      <c r="AC15">
+        <v>5.31</v>
+      </c>
+      <c r="AD15">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="AE15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AF15">
+        <v>1.3</v>
+      </c>
+      <c r="AG15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="AH15">
+        <v>5.3</v>
+      </c>
+      <c r="AI15">
+        <v>1.29</v>
+      </c>
+      <c r="AJ15">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>28.6</v>
+      </c>
+      <c r="D16">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E16">
+        <v>77</v>
+      </c>
+      <c r="F16">
+        <v>85</v>
+      </c>
+      <c r="G16">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H16">
+        <v>4.45</v>
+      </c>
+      <c r="I16">
+        <v>162</v>
+      </c>
+      <c r="J16">
+        <v>162</v>
+      </c>
+      <c r="K16">
+        <v>154</v>
+      </c>
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16">
+        <v>6</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>37</v>
+      </c>
+      <c r="P16">
+        <v>1453</v>
+      </c>
+      <c r="Q16">
+        <v>1438</v>
+      </c>
+      <c r="R16">
+        <v>787</v>
+      </c>
+      <c r="S16">
+        <v>718</v>
+      </c>
+      <c r="T16">
+        <v>192</v>
+      </c>
+      <c r="U16">
+        <v>594</v>
+      </c>
+      <c r="V16">
+        <v>26</v>
+      </c>
+      <c r="W16">
+        <v>1077</v>
+      </c>
+      <c r="X16">
+        <v>62</v>
+      </c>
+      <c r="Y16">
+        <v>9</v>
+      </c>
+      <c r="Z16">
+        <v>53</v>
+      </c>
+      <c r="AA16">
+        <v>6317</v>
+      </c>
+      <c r="AB16">
+        <v>97</v>
+      </c>
+      <c r="AC16">
+        <v>4.72</v>
+      </c>
+      <c r="AD16">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="AE16">
+        <v>8.9</v>
+      </c>
+      <c r="AF16">
+        <v>1.2</v>
+      </c>
+      <c r="AG16">
+        <v>3.7</v>
+      </c>
+      <c r="AH16">
+        <v>6.7</v>
+      </c>
+      <c r="AI16">
+        <v>1.81</v>
+      </c>
+      <c r="AJ16">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17">
+        <v>24</v>
+      </c>
+      <c r="C17">
+        <v>28.2</v>
+      </c>
+      <c r="D17">
+        <v>5.5</v>
+      </c>
+      <c r="E17">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>87</v>
+      </c>
+      <c r="G17">
+        <v>0.46</v>
+      </c>
+      <c r="H17">
+        <v>5.07</v>
+      </c>
+      <c r="I17">
+        <v>161</v>
+      </c>
+      <c r="J17">
+        <v>161</v>
+      </c>
+      <c r="K17">
+        <v>159</v>
+      </c>
+      <c r="L17">
+        <v>2</v>
+      </c>
+      <c r="M17">
+        <v>5</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>40</v>
+      </c>
+      <c r="P17">
+        <v>1442.2</v>
+      </c>
+      <c r="Q17">
+        <v>1618</v>
+      </c>
+      <c r="R17">
+        <v>886</v>
+      </c>
+      <c r="S17">
+        <v>813</v>
+      </c>
+      <c r="T17">
+        <v>213</v>
+      </c>
+      <c r="U17">
+        <v>616</v>
+      </c>
+      <c r="V17">
+        <v>42</v>
+      </c>
+      <c r="W17">
+        <v>987</v>
+      </c>
+      <c r="X17">
+        <v>51</v>
+      </c>
+      <c r="Y17">
+        <v>10</v>
+      </c>
+      <c r="Z17">
+        <v>64</v>
+      </c>
+      <c r="AA17">
+        <v>6477</v>
+      </c>
+      <c r="AB17">
+        <v>89</v>
+      </c>
+      <c r="AC17">
+        <v>5.07</v>
+      </c>
+      <c r="AD17">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="AE17">
+        <v>10.1</v>
+      </c>
+      <c r="AF17">
+        <v>1.3</v>
+      </c>
+      <c r="AG17">
+        <v>3.8</v>
+      </c>
+      <c r="AH17">
+        <v>6.2</v>
+      </c>
+      <c r="AI17">
+        <v>1.6</v>
+      </c>
+      <c r="AJ17">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>26.3</v>
+      </c>
+      <c r="D18">
+        <v>5.25</v>
+      </c>
+      <c r="E18">
+        <v>63</v>
+      </c>
+      <c r="F18">
+        <v>97</v>
+      </c>
+      <c r="G18">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>161</v>
+      </c>
+      <c r="J18">
+        <v>161</v>
+      </c>
+      <c r="K18">
+        <v>148</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>8</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>34</v>
+      </c>
+      <c r="P18">
+        <v>1423.1</v>
+      </c>
+      <c r="Q18">
+        <v>1591</v>
+      </c>
+      <c r="R18">
+        <v>845</v>
+      </c>
+      <c r="S18">
+        <v>791</v>
+      </c>
+      <c r="T18">
+        <v>208</v>
+      </c>
+      <c r="U18">
+        <v>487</v>
+      </c>
+      <c r="V18">
+        <v>22</v>
+      </c>
+      <c r="W18">
+        <v>927</v>
+      </c>
+      <c r="X18">
+        <v>28</v>
+      </c>
+      <c r="Y18">
+        <v>6</v>
+      </c>
+      <c r="Z18">
+        <v>57</v>
+      </c>
+      <c r="AA18">
+        <v>6216</v>
+      </c>
+      <c r="AB18">
+        <v>101</v>
+      </c>
+      <c r="AC18">
+        <v>4.82</v>
+      </c>
+      <c r="AD18">
+        <v>1.46</v>
+      </c>
+      <c r="AE18">
+        <v>10.1</v>
+      </c>
+      <c r="AF18">
+        <v>1.3</v>
+      </c>
+      <c r="AG18">
+        <v>3.1</v>
+      </c>
+      <c r="AH18">
+        <v>5.9</v>
+      </c>
+      <c r="AI18">
+        <v>1.9</v>
+      </c>
+      <c r="AJ18">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B19">
+        <v>21</v>
+      </c>
+      <c r="C19">
+        <v>25.5</v>
+      </c>
+      <c r="D19">
+        <v>5.27</v>
+      </c>
+      <c r="E19">
+        <v>68</v>
+      </c>
+      <c r="F19">
+        <v>94</v>
+      </c>
+      <c r="G19">
+        <v>0.42</v>
+      </c>
+      <c r="H19">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I19">
+        <v>162</v>
+      </c>
+      <c r="J19">
+        <v>162</v>
+      </c>
+      <c r="K19">
+        <v>156</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19">
+        <v>44</v>
+      </c>
+      <c r="P19">
+        <v>1434.1</v>
+      </c>
+      <c r="Q19">
+        <v>1505</v>
+      </c>
+      <c r="R19">
+        <v>853</v>
+      </c>
+      <c r="S19">
+        <v>748</v>
+      </c>
+      <c r="T19">
+        <v>152</v>
+      </c>
+      <c r="U19">
+        <v>572</v>
+      </c>
+      <c r="V19">
+        <v>39</v>
+      </c>
+      <c r="W19">
+        <v>1043</v>
+      </c>
+      <c r="X19">
+        <v>60</v>
+      </c>
+      <c r="Y19">
+        <v>8</v>
+      </c>
+      <c r="Z19">
+        <v>46</v>
+      </c>
+      <c r="AA19">
+        <v>6321</v>
+      </c>
+      <c r="AB19">
+        <v>96</v>
+      </c>
+      <c r="AC19">
+        <v>4.38</v>
+      </c>
+      <c r="AD19">
+        <v>1.448</v>
+      </c>
+      <c r="AE19">
+        <v>9.4</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>3.6</v>
+      </c>
+      <c r="AH19">
+        <v>6.5</v>
+      </c>
+      <c r="AI19">
+        <v>1.82</v>
+      </c>
+      <c r="AJ19">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="D20">
+        <v>4.3600000000000003</v>
+      </c>
+      <c r="E20">
+        <v>97</v>
+      </c>
+      <c r="F20">
+        <v>66</v>
+      </c>
+      <c r="G20">
+        <v>0.59499999999999997</v>
+      </c>
+      <c r="H20">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="I20">
+        <v>163</v>
+      </c>
+      <c r="J20">
+        <v>163</v>
+      </c>
+      <c r="K20">
+        <v>158</v>
+      </c>
+      <c r="L20">
+        <v>5</v>
+      </c>
+      <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20">
+        <v>49</v>
+      </c>
+      <c r="P20">
+        <v>1456.2</v>
+      </c>
+      <c r="Q20">
+        <v>1372</v>
+      </c>
+      <c r="R20">
+        <v>711</v>
+      </c>
+      <c r="S20">
+        <v>691</v>
+      </c>
+      <c r="T20">
+        <v>167</v>
+      </c>
+      <c r="U20">
+        <v>617</v>
+      </c>
+      <c r="V20">
+        <v>53</v>
+      </c>
+      <c r="W20">
+        <v>1172</v>
+      </c>
+      <c r="X20">
+        <v>52</v>
+      </c>
+      <c r="Y20">
+        <v>4</v>
+      </c>
+      <c r="Z20">
+        <v>38</v>
+      </c>
+      <c r="AA20">
+        <v>6232</v>
+      </c>
+      <c r="AB20">
+        <v>104</v>
+      </c>
+      <c r="AC20">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="AD20">
+        <v>1.365</v>
+      </c>
+      <c r="AE20">
+        <v>8.5</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>3.8</v>
+      </c>
+      <c r="AH20">
+        <v>7.2</v>
+      </c>
+      <c r="AI20">
+        <v>1.9</v>
+      </c>
+      <c r="AJ20">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>31.2</v>
+      </c>
+      <c r="D21">
+        <v>4.51</v>
+      </c>
+      <c r="E21">
+        <v>98</v>
+      </c>
+      <c r="F21">
+        <v>64</v>
+      </c>
+      <c r="G21">
+        <v>0.60499999999999998</v>
+      </c>
+      <c r="H21">
+        <v>4.13</v>
+      </c>
+      <c r="I21">
+        <v>162</v>
+      </c>
+      <c r="J21">
+        <v>162</v>
+      </c>
+      <c r="K21">
+        <v>156</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>10</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>50</v>
+      </c>
+      <c r="P21">
+        <v>1439.2</v>
+      </c>
+      <c r="Q21">
+        <v>1402</v>
+      </c>
+      <c r="R21">
+        <v>731</v>
+      </c>
+      <c r="S21">
+        <v>661</v>
+      </c>
+      <c r="T21">
+        <v>158</v>
+      </c>
+      <c r="U21">
+        <v>581</v>
+      </c>
+      <c r="V21">
+        <v>27</v>
+      </c>
+      <c r="W21">
+        <v>1111</v>
+      </c>
+      <c r="X21">
+        <v>57</v>
+      </c>
+      <c r="Y21">
+        <v>4</v>
+      </c>
+      <c r="Z21">
+        <v>49</v>
+      </c>
+      <c r="AA21">
+        <v>6233</v>
+      </c>
+      <c r="AB21">
+        <v>113</v>
+      </c>
+      <c r="AC21">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="AD21">
+        <v>1.377</v>
+      </c>
+      <c r="AE21">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AF21">
+        <v>1</v>
+      </c>
+      <c r="AG21">
+        <v>3.6</v>
+      </c>
+      <c r="AH21">
+        <v>6.9</v>
+      </c>
+      <c r="AI21">
+        <v>1.91</v>
+      </c>
+      <c r="AJ21">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>23</v>
+      </c>
+      <c r="C22">
+        <v>31.4</v>
+      </c>
+      <c r="D22">
+        <v>5.22</v>
+      </c>
+      <c r="E22">
+        <v>87</v>
+      </c>
+      <c r="F22">
+        <v>75</v>
+      </c>
+      <c r="G22">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="H22">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="I22">
+        <v>162</v>
+      </c>
+      <c r="J22">
+        <v>162</v>
+      </c>
+      <c r="K22">
+        <v>156</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <v>5</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>48</v>
+      </c>
+      <c r="P22">
+        <v>1438.1</v>
+      </c>
+      <c r="Q22">
+        <v>1537</v>
+      </c>
+      <c r="R22">
+        <v>846</v>
+      </c>
+      <c r="S22">
+        <v>750</v>
+      </c>
+      <c r="T22">
+        <v>160</v>
+      </c>
+      <c r="U22">
+        <v>569</v>
+      </c>
+      <c r="V22">
+        <v>45</v>
+      </c>
+      <c r="W22">
+        <v>967</v>
+      </c>
+      <c r="X22">
+        <v>54</v>
+      </c>
+      <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22">
+        <v>57</v>
+      </c>
+      <c r="AA22">
+        <v>6309</v>
+      </c>
+      <c r="AB22">
+        <v>97</v>
+      </c>
+      <c r="AC22">
+        <v>4.53</v>
+      </c>
+      <c r="AD22">
+        <v>1.464</v>
+      </c>
+      <c r="AE22">
+        <v>9.6</v>
+      </c>
+      <c r="AF22">
+        <v>1</v>
+      </c>
+      <c r="AG22">
+        <v>3.6</v>
+      </c>
+      <c r="AH22">
+        <v>6.1</v>
+      </c>
+      <c r="AI22">
+        <v>1.7</v>
+      </c>
+      <c r="AJ22">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>28.3</v>
+      </c>
+      <c r="D23">
+        <v>5.22</v>
+      </c>
+      <c r="E23">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>85</v>
+      </c>
+      <c r="G23">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="H23">
+        <v>4.92</v>
+      </c>
+      <c r="I23">
+        <v>162</v>
+      </c>
+      <c r="J23">
+        <v>162</v>
+      </c>
+      <c r="K23">
+        <v>151</v>
+      </c>
+      <c r="L23">
+        <v>11</v>
+      </c>
+      <c r="M23">
+        <v>6</v>
+      </c>
+      <c r="N23">
+        <v>2</v>
+      </c>
+      <c r="O23">
+        <v>32</v>
+      </c>
+      <c r="P23">
+        <v>1438.1</v>
+      </c>
+      <c r="Q23">
+        <v>1494</v>
+      </c>
+      <c r="R23">
+        <v>846</v>
+      </c>
+      <c r="S23">
+        <v>787</v>
+      </c>
+      <c r="T23">
+        <v>212</v>
+      </c>
+      <c r="U23">
+        <v>627</v>
+      </c>
+      <c r="V23">
+        <v>24</v>
+      </c>
+      <c r="W23">
+        <v>1030</v>
+      </c>
+      <c r="X23">
+        <v>58</v>
+      </c>
+      <c r="Y23">
+        <v>10</v>
+      </c>
+      <c r="Z23">
+        <v>67</v>
+      </c>
+      <c r="AA23">
+        <v>6348</v>
+      </c>
+      <c r="AB23">
+        <v>98</v>
+      </c>
+      <c r="AC23">
+        <v>5.05</v>
+      </c>
+      <c r="AD23">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="AE23">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="AF23">
+        <v>1.3</v>
+      </c>
+      <c r="AG23">
+        <v>3.9</v>
+      </c>
+      <c r="AH23">
+        <v>6.4</v>
+      </c>
+      <c r="AI23">
+        <v>1.64</v>
+      </c>
+      <c r="AJ23">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>26.8</v>
+      </c>
+      <c r="D24">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E24">
+        <v>78</v>
+      </c>
+      <c r="F24">
+        <v>83</v>
+      </c>
+      <c r="G24">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H24">
+        <v>4.33</v>
+      </c>
+      <c r="I24">
+        <v>161</v>
+      </c>
+      <c r="J24">
+        <v>161</v>
+      </c>
+      <c r="K24">
+        <v>153</v>
+      </c>
+      <c r="L24">
+        <v>8</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>34</v>
+      </c>
+      <c r="P24">
+        <v>1433.1</v>
+      </c>
+      <c r="Q24">
+        <v>1444</v>
+      </c>
+      <c r="R24">
+        <v>782</v>
+      </c>
+      <c r="S24">
+        <v>689</v>
+      </c>
+      <c r="T24">
+        <v>160</v>
+      </c>
+      <c r="U24">
+        <v>633</v>
+      </c>
+      <c r="V24">
+        <v>54</v>
+      </c>
+      <c r="W24">
+        <v>1083</v>
+      </c>
+      <c r="X24">
+        <v>51</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
+        <v>54</v>
+      </c>
+      <c r="AA24">
+        <v>6272</v>
+      </c>
+      <c r="AB24">
+        <v>107</v>
+      </c>
+      <c r="AC24">
+        <v>4.51</v>
+      </c>
+      <c r="AD24">
+        <v>1.4490000000000001</v>
+      </c>
+      <c r="AE24">
+        <v>9.1</v>
+      </c>
+      <c r="AF24">
+        <v>1</v>
+      </c>
+      <c r="AG24">
+        <v>4</v>
+      </c>
+      <c r="AH24">
+        <v>6.8</v>
+      </c>
+      <c r="AI24">
+        <v>1.71</v>
+      </c>
+      <c r="AJ24">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B25">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>28.8</v>
+      </c>
+      <c r="D25">
+        <v>4.82</v>
+      </c>
+      <c r="E25">
+        <v>74</v>
+      </c>
+      <c r="F25">
+        <v>88</v>
+      </c>
+      <c r="G25">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H25">
+        <v>4.47</v>
+      </c>
+      <c r="I25">
+        <v>162</v>
+      </c>
+      <c r="J25">
+        <v>162</v>
+      </c>
+      <c r="K25">
+        <v>157</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>6</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>43</v>
+      </c>
+      <c r="P25">
+        <v>1420.1</v>
+      </c>
+      <c r="Q25">
+        <v>1454</v>
+      </c>
+      <c r="R25">
+        <v>781</v>
+      </c>
+      <c r="S25">
+        <v>705</v>
+      </c>
+      <c r="T25">
+        <v>193</v>
+      </c>
+      <c r="U25">
+        <v>529</v>
+      </c>
+      <c r="V25">
+        <v>48</v>
+      </c>
+      <c r="W25">
+        <v>1078</v>
+      </c>
+      <c r="X25">
+        <v>35</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25">
+        <v>73</v>
+      </c>
+      <c r="AA25">
+        <v>6147</v>
+      </c>
+      <c r="AB25">
+        <v>95</v>
+      </c>
+      <c r="AC25">
+        <v>4.57</v>
+      </c>
+      <c r="AD25">
+        <v>1.3959999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF25">
+        <v>1.2</v>
+      </c>
+      <c r="AG25">
+        <v>3.4</v>
+      </c>
+      <c r="AH25">
+        <v>6.8</v>
+      </c>
+      <c r="AI25">
+        <v>2.04</v>
+      </c>
+      <c r="AJ25">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>28.2</v>
+      </c>
+      <c r="D26">
+        <v>5.59</v>
+      </c>
+      <c r="E26">
+        <v>79</v>
+      </c>
+      <c r="F26">
+        <v>83</v>
+      </c>
+      <c r="G26">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H26">
+        <v>5.24</v>
+      </c>
+      <c r="I26">
+        <v>162</v>
+      </c>
+      <c r="J26">
+        <v>162</v>
+      </c>
+      <c r="K26">
+        <v>155</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26">
+        <v>40</v>
+      </c>
+      <c r="P26">
+        <v>1433.2</v>
+      </c>
+      <c r="Q26">
+        <v>1613</v>
+      </c>
+      <c r="R26">
+        <v>905</v>
+      </c>
+      <c r="S26">
+        <v>834</v>
+      </c>
+      <c r="T26">
+        <v>191</v>
+      </c>
+      <c r="U26">
+        <v>684</v>
+      </c>
+      <c r="V26">
+        <v>39</v>
+      </c>
+      <c r="W26">
+        <v>980</v>
+      </c>
+      <c r="X26">
+        <v>71</v>
+      </c>
+      <c r="Y26">
+        <v>3</v>
+      </c>
+      <c r="Z26">
+        <v>63</v>
+      </c>
+      <c r="AA26">
+        <v>6471</v>
+      </c>
+      <c r="AB26">
+        <v>95</v>
+      </c>
+      <c r="AC26">
+        <v>5.08</v>
+      </c>
+      <c r="AD26">
+        <v>1.6020000000000001</v>
+      </c>
+      <c r="AE26">
+        <v>10.1</v>
+      </c>
+      <c r="AF26">
+        <v>1.2</v>
+      </c>
+      <c r="AG26">
+        <v>4.3</v>
+      </c>
+      <c r="AH26">
+        <v>6.2</v>
+      </c>
+      <c r="AI26">
+        <v>1.43</v>
+      </c>
+      <c r="AJ26">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>984</v>
+      </c>
+      <c r="B27">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>28.6</v>
+      </c>
+      <c r="D27">
+        <v>5.13</v>
+      </c>
+      <c r="E27">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>76</v>
+      </c>
+      <c r="G27">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H27">
+        <v>4.71</v>
+      </c>
+      <c r="I27">
+        <v>162</v>
+      </c>
+      <c r="J27">
+        <v>162</v>
+      </c>
+      <c r="K27">
+        <v>156</v>
+      </c>
+      <c r="L27">
+        <v>6</v>
+      </c>
+      <c r="M27">
+        <v>3</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>42</v>
+      </c>
+      <c r="P27">
+        <v>1456.1</v>
+      </c>
+      <c r="Q27">
+        <v>1486</v>
+      </c>
+      <c r="R27">
+        <v>831</v>
+      </c>
+      <c r="S27">
+        <v>762</v>
+      </c>
+      <c r="T27">
+        <v>194</v>
+      </c>
+      <c r="U27">
+        <v>655</v>
+      </c>
+      <c r="V27">
+        <v>41</v>
+      </c>
+      <c r="W27">
+        <v>1076</v>
+      </c>
+      <c r="X27">
+        <v>51</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27">
+        <v>62</v>
+      </c>
+      <c r="AA27">
+        <v>6430</v>
+      </c>
+      <c r="AB27">
+        <v>92</v>
+      </c>
+      <c r="AC27">
+        <v>4.84</v>
+      </c>
+      <c r="AD27">
+        <v>1.47</v>
+      </c>
+      <c r="AE27">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="AF27">
+        <v>1.2</v>
+      </c>
+      <c r="AG27">
+        <v>4</v>
+      </c>
+      <c r="AH27">
+        <v>6.6</v>
+      </c>
+      <c r="AI27">
+        <v>1.64</v>
+      </c>
+      <c r="AJ27">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>28.6</v>
+      </c>
+      <c r="D28">
+        <v>5.2</v>
+      </c>
+      <c r="E28">
+        <v>75</v>
+      </c>
+      <c r="F28">
+        <v>86</v>
+      </c>
+      <c r="G28">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H28">
+        <v>4.74</v>
+      </c>
+      <c r="I28">
+        <v>161</v>
+      </c>
+      <c r="J28">
+        <v>161</v>
+      </c>
+      <c r="K28">
+        <v>156</v>
+      </c>
+      <c r="L28">
+        <v>5</v>
+      </c>
+      <c r="M28">
+        <v>3</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28">
+        <v>38</v>
+      </c>
+      <c r="P28">
+        <v>1445.1</v>
+      </c>
+      <c r="Q28">
+        <v>1519</v>
+      </c>
+      <c r="R28">
+        <v>838</v>
+      </c>
+      <c r="S28">
+        <v>761</v>
+      </c>
+      <c r="T28">
+        <v>161</v>
+      </c>
+      <c r="U28">
+        <v>667</v>
+      </c>
+      <c r="V28">
+        <v>38</v>
+      </c>
+      <c r="W28">
+        <v>1025</v>
+      </c>
+      <c r="X28">
+        <v>63</v>
+      </c>
+      <c r="Y28">
+        <v>9</v>
+      </c>
+      <c r="Z28">
+        <v>60</v>
+      </c>
+      <c r="AA28">
+        <v>6427</v>
+      </c>
+      <c r="AB28">
+        <v>97</v>
+      </c>
+      <c r="AC28">
+        <v>4.68</v>
+      </c>
+      <c r="AD28">
+        <v>1.512</v>
+      </c>
+      <c r="AE28">
+        <v>9.5</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>4.2</v>
+      </c>
+      <c r="AH28">
+        <v>6.4</v>
+      </c>
+      <c r="AI28">
+        <v>1.54</v>
+      </c>
+      <c r="AJ28">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B29">
+        <v>24</v>
+      </c>
+      <c r="C29">
+        <v>29.6</v>
+      </c>
+      <c r="D29">
+        <v>5.64</v>
+      </c>
+      <c r="E29">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>93</v>
+      </c>
+      <c r="G29">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="H29">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="I29">
+        <v>162</v>
+      </c>
+      <c r="J29">
+        <v>162</v>
+      </c>
+      <c r="K29">
+        <v>156</v>
+      </c>
+      <c r="L29">
+        <v>6</v>
+      </c>
+      <c r="M29">
+        <v>5</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29">
+        <v>45</v>
+      </c>
+      <c r="P29">
+        <v>1433</v>
+      </c>
+      <c r="Q29">
+        <v>1606</v>
+      </c>
+      <c r="R29">
+        <v>913</v>
+      </c>
+      <c r="S29">
+        <v>805</v>
+      </c>
+      <c r="T29">
+        <v>172</v>
+      </c>
+      <c r="U29">
+        <v>695</v>
+      </c>
+      <c r="V29">
+        <v>25</v>
+      </c>
+      <c r="W29">
+        <v>1055</v>
+      </c>
+      <c r="X29">
+        <v>79</v>
+      </c>
+      <c r="Y29">
+        <v>5</v>
+      </c>
+      <c r="Z29">
+        <v>52</v>
+      </c>
+      <c r="AA29">
+        <v>6482</v>
+      </c>
+      <c r="AB29">
+        <v>98</v>
+      </c>
+      <c r="AC29">
+        <v>4.84</v>
+      </c>
+      <c r="AD29">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="AE29">
+        <v>10.1</v>
+      </c>
+      <c r="AF29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AG29">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="AH29">
+        <v>6.6</v>
+      </c>
+      <c r="AI29">
+        <v>1.52</v>
+      </c>
+      <c r="AJ29">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>20</v>
+      </c>
+      <c r="C30">
+        <v>30.1</v>
+      </c>
+      <c r="D30">
+        <v>5.3</v>
+      </c>
+      <c r="E30">
+        <v>95</v>
+      </c>
+      <c r="F30">
+        <v>67</v>
+      </c>
+      <c r="G30">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H30">
+        <v>5.07</v>
+      </c>
+      <c r="I30">
+        <v>162</v>
+      </c>
+      <c r="J30">
+        <v>162</v>
+      </c>
+      <c r="K30">
+        <v>156</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30">
+        <v>9</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>47</v>
+      </c>
+      <c r="P30">
+        <v>1436.1</v>
+      </c>
+      <c r="Q30">
+        <v>1626</v>
+      </c>
+      <c r="R30">
+        <v>859</v>
+      </c>
+      <c r="S30">
+        <v>809</v>
+      </c>
+      <c r="T30">
+        <v>186</v>
+      </c>
+      <c r="U30">
+        <v>509</v>
+      </c>
+      <c r="V30">
+        <v>23</v>
+      </c>
+      <c r="W30">
+        <v>979</v>
+      </c>
+      <c r="X30">
+        <v>40</v>
+      </c>
+      <c r="Y30">
+        <v>2</v>
+      </c>
+      <c r="Z30">
+        <v>50</v>
+      </c>
+      <c r="AA30">
+        <v>6313</v>
+      </c>
+      <c r="AB30">
+        <v>100</v>
+      </c>
+      <c r="AC30">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AD30">
+        <v>1.486</v>
+      </c>
+      <c r="AE30">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="AF30">
+        <v>1.2</v>
+      </c>
+      <c r="AG30">
+        <v>3.2</v>
+      </c>
+      <c r="AH30">
+        <v>6.1</v>
+      </c>
+      <c r="AI30">
+        <v>1.92</v>
+      </c>
+      <c r="AJ30">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>27.9</v>
+      </c>
+      <c r="D31">
+        <v>5.32</v>
+      </c>
+      <c r="E31">
+        <v>84</v>
+      </c>
+      <c r="F31">
+        <v>78</v>
+      </c>
+      <c r="G31">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H31">
+        <v>4.92</v>
+      </c>
+      <c r="I31">
+        <v>162</v>
+      </c>
+      <c r="J31">
+        <v>162</v>
+      </c>
+      <c r="K31">
+        <v>148</v>
+      </c>
+      <c r="L31">
+        <v>14</v>
+      </c>
+      <c r="M31">
+        <v>9</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>39</v>
+      </c>
+      <c r="P31">
+        <v>1439</v>
+      </c>
+      <c r="Q31">
+        <v>1582</v>
+      </c>
+      <c r="R31">
+        <v>862</v>
+      </c>
+      <c r="S31">
+        <v>787</v>
+      </c>
+      <c r="T31">
+        <v>191</v>
+      </c>
+      <c r="U31">
+        <v>575</v>
+      </c>
+      <c r="V31">
+        <v>25</v>
+      </c>
+      <c r="W31">
+        <v>1009</v>
+      </c>
+      <c r="X31">
+        <v>53</v>
+      </c>
+      <c r="Y31">
+        <v>4</v>
+      </c>
+      <c r="Z31">
+        <v>55</v>
+      </c>
+      <c r="AA31">
+        <v>6368</v>
+      </c>
+      <c r="AB31">
+        <v>99</v>
+      </c>
+      <c r="AC31">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="AD31">
+        <v>1.4990000000000001</v>
+      </c>
+      <c r="AE31">
+        <v>9.9</v>
+      </c>
+      <c r="AF31">
+        <v>1.2</v>
+      </c>
+      <c r="AG31">
+        <v>3.6</v>
+      </c>
+      <c r="AH31">
+        <v>6.3</v>
+      </c>
+      <c r="AI31">
+        <v>1.75</v>
+      </c>
+      <c r="AJ31">
+        <v>1189</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AC31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AC31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="E1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="H1" t="s">
+        <v>897</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="J1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="S1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="T1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="U1" t="s">
+        <v>1134</v>
+      </c>
+      <c r="V1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="W1" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1139</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B2">
+        <v>45</v>
+      </c>
+      <c r="C2">
+        <v>28.6</v>
+      </c>
+      <c r="D2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E2">
+        <v>162</v>
+      </c>
+      <c r="F2">
+        <v>6132</v>
+      </c>
+      <c r="G2">
+        <v>5494</v>
+      </c>
+      <c r="H2">
+        <v>711</v>
+      </c>
+      <c r="I2">
+        <v>1404</v>
+      </c>
+      <c r="J2">
+        <v>248</v>
+      </c>
+      <c r="K2">
+        <v>22</v>
+      </c>
+      <c r="L2">
+        <v>158</v>
+      </c>
+      <c r="M2">
+        <v>673</v>
+      </c>
+      <c r="N2">
+        <v>71</v>
+      </c>
+      <c r="O2">
+        <v>45</v>
+      </c>
+      <c r="P2">
+        <v>511</v>
+      </c>
+      <c r="Q2">
+        <v>1022</v>
+      </c>
+      <c r="R2">
+        <v>0.25600000000000001</v>
+      </c>
+      <c r="S2">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="T2">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="U2">
+        <v>0.71599999999999997</v>
+      </c>
+      <c r="V2">
+        <v>83</v>
+      </c>
+      <c r="W2">
+        <v>2170</v>
+      </c>
+      <c r="X2">
+        <v>135</v>
+      </c>
+      <c r="Y2">
+        <v>43</v>
+      </c>
+      <c r="Z2">
+        <v>41</v>
+      </c>
+      <c r="AA2">
+        <v>42</v>
+      </c>
+      <c r="AB2">
+        <v>24</v>
+      </c>
+      <c r="AC2">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>30</v>
+      </c>
+      <c r="D3">
+        <v>5.6</v>
+      </c>
+      <c r="E3">
+        <v>162</v>
+      </c>
+      <c r="F3">
+        <v>6415</v>
+      </c>
+      <c r="G3">
+        <v>5658</v>
+      </c>
+      <c r="H3">
+        <v>908</v>
+      </c>
+      <c r="I3">
+        <v>1566</v>
+      </c>
+      <c r="J3">
+        <v>289</v>
+      </c>
+      <c r="K3">
+        <v>46</v>
+      </c>
+      <c r="L3">
+        <v>216</v>
+      </c>
+      <c r="M3">
+        <v>865</v>
+      </c>
+      <c r="N3">
+        <v>137</v>
+      </c>
+      <c r="O3">
+        <v>39</v>
+      </c>
+      <c r="P3">
+        <v>588</v>
+      </c>
+      <c r="Q3">
+        <v>1045</v>
+      </c>
+      <c r="R3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S3">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="U3">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="V3">
+        <v>101</v>
+      </c>
+      <c r="W3">
+        <v>2595</v>
+      </c>
+      <c r="X3">
+        <v>94</v>
+      </c>
+      <c r="Y3">
+        <v>48</v>
+      </c>
+      <c r="Z3">
+        <v>61</v>
+      </c>
+      <c r="AA3">
+        <v>60</v>
+      </c>
+      <c r="AB3">
+        <v>52</v>
+      </c>
+      <c r="AC3">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>29.6</v>
+      </c>
+      <c r="D4">
+        <v>5.19</v>
+      </c>
+      <c r="E4">
+        <v>162</v>
+      </c>
+      <c r="F4">
+        <v>6351</v>
+      </c>
+      <c r="G4">
+        <v>5569</v>
+      </c>
+      <c r="H4">
+        <v>840</v>
+      </c>
+      <c r="I4">
+        <v>1481</v>
+      </c>
+      <c r="J4">
+        <v>309</v>
+      </c>
+      <c r="K4">
+        <v>23</v>
+      </c>
+      <c r="L4">
+        <v>197</v>
+      </c>
+      <c r="M4">
+        <v>791</v>
+      </c>
+      <c r="N4">
+        <v>148</v>
+      </c>
+      <c r="O4">
+        <v>66</v>
+      </c>
+      <c r="P4">
+        <v>608</v>
+      </c>
+      <c r="Q4">
+        <v>962</v>
+      </c>
+      <c r="R4">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S4">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="T4">
+        <v>0.436</v>
+      </c>
+      <c r="U4">
+        <v>0.77700000000000002</v>
+      </c>
+      <c r="V4">
+        <v>96</v>
+      </c>
+      <c r="W4">
+        <v>2427</v>
+      </c>
+      <c r="X4">
+        <v>120</v>
+      </c>
+      <c r="Y4">
+        <v>53</v>
+      </c>
+      <c r="Z4">
+        <v>74</v>
+      </c>
+      <c r="AA4">
+        <v>47</v>
+      </c>
+      <c r="AB4">
+        <v>62</v>
+      </c>
+      <c r="AC4">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>32.5</v>
+      </c>
+      <c r="D5">
+        <v>5.25</v>
+      </c>
+      <c r="E5">
+        <v>162</v>
+      </c>
+      <c r="F5">
+        <v>6409</v>
+      </c>
+      <c r="G5">
+        <v>5637</v>
+      </c>
+      <c r="H5">
+        <v>851</v>
+      </c>
+      <c r="I5">
+        <v>1572</v>
+      </c>
+      <c r="J5">
+        <v>299</v>
+      </c>
+      <c r="K5">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>203</v>
+      </c>
+      <c r="M5">
+        <v>804</v>
+      </c>
+      <c r="N5">
+        <v>107</v>
+      </c>
+      <c r="O5">
+        <v>46</v>
+      </c>
+      <c r="P5">
+        <v>615</v>
+      </c>
+      <c r="Q5">
+        <v>890</v>
+      </c>
+      <c r="R5">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S5">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="T5">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="U5">
+        <v>0.8</v>
+      </c>
+      <c r="V5">
+        <v>108</v>
+      </c>
+      <c r="W5">
+        <v>2522</v>
+      </c>
+      <c r="X5">
+        <v>146</v>
+      </c>
+      <c r="Y5">
+        <v>61</v>
+      </c>
+      <c r="Z5">
+        <v>41</v>
+      </c>
+      <c r="AA5">
+        <v>55</v>
+      </c>
+      <c r="AB5">
+        <v>34</v>
+      </c>
+      <c r="AC5">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>28.8</v>
+      </c>
+      <c r="D6">
+        <v>5.16</v>
+      </c>
+      <c r="E6">
+        <v>162</v>
+      </c>
+      <c r="F6">
+        <v>6321</v>
+      </c>
+      <c r="G6">
+        <v>5579</v>
+      </c>
+      <c r="H6">
+        <v>836</v>
+      </c>
+      <c r="I6">
+        <v>1551</v>
+      </c>
+      <c r="J6">
+        <v>334</v>
+      </c>
+      <c r="K6">
+        <v>42</v>
+      </c>
+      <c r="L6">
+        <v>176</v>
+      </c>
+      <c r="M6">
+        <v>808</v>
+      </c>
+      <c r="N6">
+        <v>67</v>
+      </c>
+      <c r="O6">
+        <v>39</v>
+      </c>
+      <c r="P6">
+        <v>597</v>
+      </c>
+      <c r="Q6">
+        <v>928</v>
+      </c>
+      <c r="R6">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="S6">
+        <v>0.35</v>
+      </c>
+      <c r="T6">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="V6">
+        <v>99</v>
+      </c>
+      <c r="W6">
+        <v>2497</v>
+      </c>
+      <c r="X6">
+        <v>131</v>
+      </c>
+      <c r="Y6">
+        <v>55</v>
+      </c>
+      <c r="Z6">
+        <v>34</v>
+      </c>
+      <c r="AA6">
+        <v>56</v>
+      </c>
+      <c r="AB6">
+        <v>27</v>
+      </c>
+      <c r="AC6">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>31.2</v>
+      </c>
+      <c r="D7">
+        <v>4.6100000000000003</v>
+      </c>
+      <c r="E7">
+        <v>162</v>
+      </c>
+      <c r="F7">
+        <v>6201</v>
+      </c>
+      <c r="G7">
+        <v>5482</v>
+      </c>
+      <c r="H7">
+        <v>747</v>
+      </c>
+      <c r="I7">
+        <v>1411</v>
+      </c>
+      <c r="J7">
+        <v>255</v>
+      </c>
+      <c r="K7">
+        <v>35</v>
+      </c>
+      <c r="L7">
+        <v>189</v>
+      </c>
+      <c r="M7">
+        <v>717</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>44</v>
+      </c>
+      <c r="P7">
+        <v>571</v>
+      </c>
+      <c r="Q7">
+        <v>1170</v>
+      </c>
+      <c r="R7">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="S7">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="T7">
+        <v>0.42</v>
+      </c>
+      <c r="U7">
+        <v>0.749</v>
+      </c>
+      <c r="V7">
+        <v>91</v>
+      </c>
+      <c r="W7">
+        <v>2303</v>
+      </c>
+      <c r="X7">
+        <v>120</v>
+      </c>
+      <c r="Y7">
+        <v>39</v>
+      </c>
+      <c r="Z7">
+        <v>65</v>
+      </c>
+      <c r="AA7">
+        <v>44</v>
+      </c>
+      <c r="AB7">
+        <v>38</v>
+      </c>
+      <c r="AC7">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B8">
+        <v>40</v>
+      </c>
+      <c r="C8">
+        <v>25.8</v>
+      </c>
+      <c r="D8">
+        <v>4.8</v>
+      </c>
+      <c r="E8">
+        <v>162</v>
+      </c>
+      <c r="F8">
+        <v>6264</v>
+      </c>
+      <c r="G8">
+        <v>5644</v>
+      </c>
+      <c r="H8">
+        <v>777</v>
+      </c>
+      <c r="I8">
+        <v>1563</v>
+      </c>
+      <c r="J8">
+        <v>298</v>
+      </c>
+      <c r="K8">
+        <v>37</v>
+      </c>
+      <c r="L8">
+        <v>162</v>
+      </c>
+      <c r="M8">
+        <v>742</v>
+      </c>
+      <c r="N8">
+        <v>110</v>
+      </c>
+      <c r="O8">
+        <v>50</v>
+      </c>
+      <c r="P8">
+        <v>499</v>
+      </c>
+      <c r="Q8">
+        <v>810</v>
+      </c>
+      <c r="R8">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="S8">
+        <v>0.33700000000000002</v>
+      </c>
+      <c r="T8">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="U8">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="V8">
+        <v>94</v>
+      </c>
+      <c r="W8">
+        <v>2421</v>
+      </c>
+      <c r="X8">
+        <v>138</v>
+      </c>
+      <c r="Y8">
+        <v>34</v>
+      </c>
+      <c r="Z8">
+        <v>40</v>
+      </c>
+      <c r="AA8">
+        <v>45</v>
+      </c>
+      <c r="AB8">
+        <v>22</v>
+      </c>
+      <c r="AC8">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9">
+        <v>35</v>
+      </c>
+      <c r="C9">
+        <v>28.3</v>
+      </c>
+      <c r="D9">
+        <v>5.31</v>
+      </c>
+      <c r="E9">
+        <v>163</v>
+      </c>
+      <c r="F9">
+        <v>6378</v>
+      </c>
+      <c r="G9">
+        <v>5649</v>
+      </c>
+      <c r="H9">
+        <v>865</v>
+      </c>
+      <c r="I9">
+        <v>1536</v>
+      </c>
+      <c r="J9">
+        <v>312</v>
+      </c>
+      <c r="K9">
+        <v>37</v>
+      </c>
+      <c r="L9">
+        <v>209</v>
+      </c>
+      <c r="M9">
+        <v>820</v>
+      </c>
+      <c r="N9">
+        <v>164</v>
+      </c>
+      <c r="O9">
+        <v>54</v>
+      </c>
+      <c r="P9">
+        <v>569</v>
+      </c>
+      <c r="Q9">
+        <v>1125</v>
+      </c>
+      <c r="R9">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="S9">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="T9">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="V9">
+        <v>96</v>
+      </c>
+      <c r="W9">
+        <v>2549</v>
+      </c>
+      <c r="X9">
+        <v>107</v>
+      </c>
+      <c r="Y9">
+        <v>45</v>
+      </c>
+      <c r="Z9">
+        <v>70</v>
+      </c>
+      <c r="AA9">
+        <v>44</v>
+      </c>
+      <c r="AB9">
+        <v>37</v>
+      </c>
+      <c r="AC9">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10">
+        <v>51</v>
+      </c>
+      <c r="C10">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>6.23</v>
+      </c>
+      <c r="E10">
+        <v>162</v>
+      </c>
+      <c r="F10">
+        <v>6554</v>
+      </c>
+      <c r="G10">
+        <v>5634</v>
+      </c>
+      <c r="H10">
+        <v>1009</v>
+      </c>
+      <c r="I10">
+        <v>1629</v>
+      </c>
+      <c r="J10">
+        <v>309</v>
+      </c>
+      <c r="K10">
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>209</v>
+      </c>
+      <c r="M10">
+        <v>960</v>
+      </c>
+      <c r="N10">
+        <v>147</v>
+      </c>
+      <c r="O10">
+        <v>50</v>
+      </c>
+      <c r="P10">
+        <v>743</v>
+      </c>
+      <c r="Q10">
+        <v>1099</v>
+      </c>
+      <c r="R10">
+        <v>0.28899999999999998</v>
+      </c>
+      <c r="S10">
+        <v>0.373</v>
+      </c>
+      <c r="T10">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.84</v>
+      </c>
+      <c r="V10">
+        <v>111</v>
+      </c>
+      <c r="W10">
+        <v>2629</v>
+      </c>
+      <c r="X10">
+        <v>136</v>
+      </c>
+      <c r="Y10">
+        <v>55</v>
+      </c>
+      <c r="Z10">
+        <v>54</v>
+      </c>
+      <c r="AA10">
+        <v>67</v>
+      </c>
+      <c r="AB10">
+        <v>41</v>
+      </c>
+      <c r="AC10">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>44</v>
+      </c>
+      <c r="C11">
+        <v>29.7</v>
+      </c>
+      <c r="D11">
+        <v>5.59</v>
+      </c>
+      <c r="E11">
+        <v>162</v>
+      </c>
+      <c r="F11">
+        <v>6369</v>
+      </c>
+      <c r="G11">
+        <v>5717</v>
+      </c>
+      <c r="H11">
+        <v>906</v>
+      </c>
+      <c r="I11">
+        <v>1644</v>
+      </c>
+      <c r="J11">
+        <v>305</v>
+      </c>
+      <c r="K11">
+        <v>39</v>
+      </c>
+      <c r="L11">
+        <v>223</v>
+      </c>
+      <c r="M11">
+        <v>863</v>
+      </c>
+      <c r="N11">
+        <v>70</v>
+      </c>
+      <c r="O11">
+        <v>43</v>
+      </c>
+      <c r="P11">
+        <v>508</v>
+      </c>
+      <c r="Q11">
+        <v>863</v>
+      </c>
+      <c r="R11">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="S11">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="T11">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="U11">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="V11">
+        <v>87</v>
+      </c>
+      <c r="W11">
+        <v>2696</v>
+      </c>
+      <c r="X11">
+        <v>125</v>
+      </c>
+      <c r="Y11">
+        <v>43</v>
+      </c>
+      <c r="Z11">
+        <v>54</v>
+      </c>
+      <c r="AA11">
+        <v>46</v>
+      </c>
+      <c r="AB11">
+        <v>31</v>
+      </c>
+      <c r="AC11">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>27.5</v>
+      </c>
+      <c r="D12">
+        <v>4.6399999999999997</v>
+      </c>
+      <c r="E12">
+        <v>161</v>
+      </c>
+      <c r="F12">
+        <v>6096</v>
+      </c>
+      <c r="G12">
+        <v>5481</v>
+      </c>
+      <c r="H12">
+        <v>747</v>
+      </c>
+      <c r="I12">
+        <v>1433</v>
+      </c>
+      <c r="J12">
+        <v>289</v>
+      </c>
+      <c r="K12">
+        <v>34</v>
+      </c>
+      <c r="L12">
+        <v>212</v>
+      </c>
+      <c r="M12">
+        <v>704</v>
+      </c>
+      <c r="N12">
+        <v>108</v>
+      </c>
+      <c r="O12">
+        <v>70</v>
+      </c>
+      <c r="P12">
+        <v>458</v>
+      </c>
+      <c r="Q12">
+        <v>1049</v>
+      </c>
+      <c r="R12">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="S12">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="T12">
+        <v>0.443</v>
+      </c>
+      <c r="U12">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="V12">
+        <v>95</v>
+      </c>
+      <c r="W12">
+        <v>2426</v>
+      </c>
+      <c r="X12">
+        <v>108</v>
+      </c>
+      <c r="Y12">
+        <v>82</v>
+      </c>
+      <c r="Z12">
+        <v>35</v>
+      </c>
+      <c r="AA12">
+        <v>39</v>
+      </c>
+      <c r="AB12">
+        <v>19</v>
+      </c>
+      <c r="AC12">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>25.2</v>
+      </c>
+      <c r="D13">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E13">
+        <v>162</v>
+      </c>
+      <c r="F13">
+        <v>6216</v>
+      </c>
+      <c r="G13">
+        <v>5578</v>
+      </c>
+      <c r="H13">
+        <v>691</v>
+      </c>
+      <c r="I13">
+        <v>1465</v>
+      </c>
+      <c r="J13">
+        <v>266</v>
+      </c>
+      <c r="K13">
+        <v>44</v>
+      </c>
+      <c r="L13">
+        <v>128</v>
+      </c>
+      <c r="M13">
+        <v>655</v>
+      </c>
+      <c r="N13">
+        <v>92</v>
+      </c>
+      <c r="O13">
+        <v>46</v>
+      </c>
+      <c r="P13">
+        <v>479</v>
+      </c>
+      <c r="Q13">
+        <v>1145</v>
+      </c>
+      <c r="R13">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="S13">
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="T13">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="U13">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="V13">
+        <v>87</v>
+      </c>
+      <c r="W13">
+        <v>2203</v>
+      </c>
+      <c r="X13">
+        <v>119</v>
+      </c>
+      <c r="Y13">
+        <v>59</v>
+      </c>
+      <c r="Z13">
+        <v>44</v>
+      </c>
+      <c r="AA13">
+        <v>56</v>
+      </c>
+      <c r="AB13">
+        <v>30</v>
+      </c>
+      <c r="AC13">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14">
+        <v>38</v>
+      </c>
+      <c r="C14">
+        <v>29.8</v>
+      </c>
+      <c r="D14">
+        <v>5.08</v>
+      </c>
+      <c r="E14">
+        <v>162</v>
+      </c>
+      <c r="F14">
+        <v>6403</v>
+      </c>
+      <c r="G14">
+        <v>5485</v>
+      </c>
+      <c r="H14">
+        <v>823</v>
+      </c>
+      <c r="I14">
+        <v>1463</v>
+      </c>
+      <c r="J14">
+        <v>293</v>
+      </c>
+      <c r="K14">
+        <v>23</v>
+      </c>
+      <c r="L14">
+        <v>168</v>
+      </c>
+      <c r="M14">
+        <v>784</v>
+      </c>
+      <c r="N14">
+        <v>166</v>
+      </c>
+      <c r="O14">
+        <v>75</v>
+      </c>
+      <c r="P14">
+        <v>728</v>
+      </c>
+      <c r="Q14">
+        <v>1138</v>
+      </c>
+      <c r="R14">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="S14">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="T14">
+        <v>0.42</v>
+      </c>
+      <c r="U14">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="V14">
+        <v>97</v>
+      </c>
+      <c r="W14">
+        <v>2306</v>
+      </c>
+      <c r="X14">
+        <v>127</v>
+      </c>
+      <c r="Y14">
+        <v>52</v>
+      </c>
+      <c r="Z14">
+        <v>79</v>
+      </c>
+      <c r="AA14">
+        <v>58</v>
+      </c>
+      <c r="AB14">
+        <v>57</v>
+      </c>
+      <c r="AC14">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>26.9</v>
+      </c>
+      <c r="D15">
+        <v>5.32</v>
+      </c>
+      <c r="E15">
+        <v>161</v>
+      </c>
+      <c r="F15">
+        <v>6325</v>
+      </c>
+      <c r="G15">
+        <v>5624</v>
+      </c>
+      <c r="H15">
+        <v>856</v>
+      </c>
+      <c r="I15">
+        <v>1584</v>
+      </c>
+      <c r="J15">
+        <v>294</v>
+      </c>
+      <c r="K15">
+        <v>52</v>
+      </c>
+      <c r="L15">
+        <v>151</v>
+      </c>
+      <c r="M15">
+        <v>800</v>
+      </c>
+      <c r="N15">
+        <v>127</v>
+      </c>
+      <c r="O15">
+        <v>39</v>
+      </c>
+      <c r="P15">
+        <v>535</v>
+      </c>
+      <c r="Q15">
+        <v>932</v>
+      </c>
+      <c r="R15">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="S15">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="T15">
+        <v>0.433</v>
+      </c>
+      <c r="U15">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="V15">
+        <v>98</v>
+      </c>
+      <c r="W15">
+        <v>2435</v>
+      </c>
+      <c r="X15">
+        <v>156</v>
+      </c>
+      <c r="Y15">
+        <v>64</v>
+      </c>
+      <c r="Z15">
+        <v>46</v>
+      </c>
+      <c r="AA15">
+        <v>56</v>
+      </c>
+      <c r="AB15">
+        <v>25</v>
+      </c>
+      <c r="AC15">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>29.2</v>
+      </c>
+      <c r="D16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E16">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>6338</v>
+      </c>
+      <c r="G16">
+        <v>5567</v>
+      </c>
+      <c r="H16">
+        <v>793</v>
+      </c>
+      <c r="I16">
+        <v>1480</v>
+      </c>
+      <c r="J16">
+        <v>253</v>
+      </c>
+      <c r="K16">
+        <v>23</v>
+      </c>
+      <c r="L16">
+        <v>187</v>
+      </c>
+      <c r="M16">
+        <v>761</v>
+      </c>
+      <c r="N16">
+        <v>167</v>
+      </c>
+      <c r="O16">
+        <v>68</v>
+      </c>
+      <c r="P16">
+        <v>594</v>
+      </c>
+      <c r="Q16">
+        <v>1030</v>
+      </c>
+      <c r="R16">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="S16">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="T16">
+        <v>0.42</v>
+      </c>
+      <c r="U16">
+        <v>0.76</v>
+      </c>
+      <c r="V16">
+        <v>96</v>
+      </c>
+      <c r="W16">
+        <v>2340</v>
+      </c>
+      <c r="X16">
+        <v>109</v>
+      </c>
+      <c r="Y16">
+        <v>52</v>
+      </c>
+      <c r="Z16">
+        <v>74</v>
+      </c>
+      <c r="AA16">
+        <v>51</v>
+      </c>
+      <c r="AB16">
+        <v>34</v>
+      </c>
+      <c r="AC16">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B17">
+        <v>44</v>
+      </c>
+      <c r="C17">
+        <v>28.1</v>
+      </c>
+      <c r="D17">
+        <v>5.0599999999999996</v>
+      </c>
+      <c r="E17">
+        <v>161</v>
+      </c>
+      <c r="F17">
+        <v>6433</v>
+      </c>
+      <c r="G17">
+        <v>5582</v>
+      </c>
+      <c r="H17">
+        <v>815</v>
+      </c>
+      <c r="I17">
+        <v>1524</v>
+      </c>
+      <c r="J17">
+        <v>299</v>
+      </c>
+      <c r="K17">
+        <v>30</v>
+      </c>
+      <c r="L17">
+        <v>165</v>
+      </c>
+      <c r="M17">
+        <v>777</v>
+      </c>
+      <c r="N17">
+        <v>81</v>
+      </c>
+      <c r="O17">
+        <v>33</v>
+      </c>
+      <c r="P17">
+        <v>658</v>
+      </c>
+      <c r="Q17">
+        <v>1065</v>
+      </c>
+      <c r="R17">
+        <v>0.27300000000000002</v>
+      </c>
+      <c r="S17">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="T17">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="U17">
+        <v>0.77900000000000003</v>
+      </c>
+      <c r="V17">
+        <v>98</v>
+      </c>
+      <c r="W17">
+        <v>2378</v>
+      </c>
+      <c r="X17">
+        <v>110</v>
+      </c>
+      <c r="Y17">
+        <v>55</v>
+      </c>
+      <c r="Z17">
+        <v>87</v>
+      </c>
+      <c r="AA17">
+        <v>51</v>
+      </c>
+      <c r="AB17">
+        <v>44</v>
+      </c>
+      <c r="AC17">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>26.7</v>
+      </c>
+      <c r="D18">
+        <v>4.26</v>
+      </c>
+      <c r="E18">
+        <v>161</v>
+      </c>
+      <c r="F18">
+        <v>6124</v>
+      </c>
+      <c r="G18">
+        <v>5495</v>
+      </c>
+      <c r="H18">
+        <v>686</v>
+      </c>
+      <c r="I18">
+        <v>1450</v>
+      </c>
+      <c r="J18">
+        <v>285</v>
+      </c>
+      <c r="K18">
+        <v>30</v>
+      </c>
+      <c r="L18">
+        <v>105</v>
+      </c>
+      <c r="M18">
+        <v>643</v>
+      </c>
+      <c r="N18">
+        <v>118</v>
+      </c>
+      <c r="O18">
+        <v>60</v>
+      </c>
+      <c r="P18">
+        <v>500</v>
+      </c>
+      <c r="Q18">
+        <v>978</v>
+      </c>
+      <c r="R18">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="S18">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="T18">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="U18">
+        <v>0.71199999999999997</v>
+      </c>
+      <c r="V18">
+        <v>79</v>
+      </c>
+      <c r="W18">
+        <v>2110</v>
+      </c>
+      <c r="X18">
+        <v>151</v>
+      </c>
+      <c r="Y18">
+        <v>49</v>
+      </c>
+      <c r="Z18">
+        <v>24</v>
+      </c>
+      <c r="AA18">
+        <v>56</v>
+      </c>
+      <c r="AB18">
+        <v>28</v>
+      </c>
+      <c r="AC18">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B19">
+        <v>44</v>
+      </c>
+      <c r="C19">
+        <v>25.9</v>
+      </c>
+      <c r="D19">
+        <v>4.43</v>
+      </c>
+      <c r="E19">
+        <v>162</v>
+      </c>
+      <c r="F19">
+        <v>6151</v>
+      </c>
+      <c r="G19">
+        <v>5559</v>
+      </c>
+      <c r="H19">
+        <v>718</v>
+      </c>
+      <c r="I19">
+        <v>1473</v>
+      </c>
+      <c r="J19">
+        <v>320</v>
+      </c>
+      <c r="K19">
+        <v>47</v>
+      </c>
+      <c r="L19">
+        <v>163</v>
+      </c>
+      <c r="M19">
+        <v>680</v>
+      </c>
+      <c r="N19">
+        <v>70</v>
+      </c>
+      <c r="O19">
+        <v>51</v>
+      </c>
+      <c r="P19">
+        <v>438</v>
+      </c>
+      <c r="Q19">
+        <v>939</v>
+      </c>
+      <c r="R19">
+        <v>0.26500000000000001</v>
+      </c>
+      <c r="S19">
+        <v>0.32300000000000001</v>
+      </c>
+      <c r="T19">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="U19">
+        <v>0.751</v>
+      </c>
+      <c r="V19">
+        <v>91</v>
+      </c>
+      <c r="W19">
+        <v>2376</v>
+      </c>
+      <c r="X19">
+        <v>138</v>
+      </c>
+      <c r="Y19">
+        <v>53</v>
+      </c>
+      <c r="Z19">
+        <v>71</v>
+      </c>
+      <c r="AA19">
+        <v>28</v>
+      </c>
+      <c r="AB19">
+        <v>39</v>
+      </c>
+      <c r="AC19">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>45</v>
+      </c>
+      <c r="C20">
+        <v>30.1</v>
+      </c>
+      <c r="D20">
+        <v>5.23</v>
+      </c>
+      <c r="E20">
+        <v>163</v>
+      </c>
+      <c r="F20">
+        <v>6454</v>
+      </c>
+      <c r="G20">
+        <v>5572</v>
+      </c>
+      <c r="H20">
+        <v>853</v>
+      </c>
+      <c r="I20">
+        <v>1553</v>
+      </c>
+      <c r="J20">
+        <v>297</v>
+      </c>
+      <c r="K20">
+        <v>14</v>
+      </c>
+      <c r="L20">
+        <v>181</v>
+      </c>
+      <c r="M20">
+        <v>814</v>
+      </c>
+      <c r="N20">
+        <v>150</v>
+      </c>
+      <c r="O20">
+        <v>61</v>
+      </c>
+      <c r="P20">
+        <v>717</v>
+      </c>
+      <c r="Q20">
+        <v>994</v>
+      </c>
+      <c r="R20">
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="S20">
+        <v>0.36299999999999999</v>
+      </c>
+      <c r="T20">
+        <v>0.434</v>
+      </c>
+      <c r="U20">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="V20">
+        <v>104</v>
+      </c>
+      <c r="W20">
+        <v>2421</v>
+      </c>
+      <c r="X20">
+        <v>149</v>
+      </c>
+      <c r="Y20">
+        <v>48</v>
+      </c>
+      <c r="Z20">
+        <v>63</v>
+      </c>
+      <c r="AA20">
+        <v>54</v>
+      </c>
+      <c r="AB20">
+        <v>53</v>
+      </c>
+      <c r="AC20">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>39</v>
+      </c>
+      <c r="C21">
+        <v>30.9</v>
+      </c>
+      <c r="D21">
+        <v>5.56</v>
+      </c>
+      <c r="E21">
+        <v>162</v>
+      </c>
+      <c r="F21">
+        <v>6416</v>
+      </c>
+      <c r="G21">
+        <v>5568</v>
+      </c>
+      <c r="H21">
+        <v>900</v>
+      </c>
+      <c r="I21">
+        <v>1568</v>
+      </c>
+      <c r="J21">
+        <v>302</v>
+      </c>
+      <c r="K21">
+        <v>36</v>
+      </c>
+      <c r="L21">
+        <v>193</v>
+      </c>
+      <c r="M21">
+        <v>855</v>
+      </c>
+      <c r="N21">
+        <v>104</v>
+      </c>
+      <c r="O21">
+        <v>57</v>
+      </c>
+      <c r="P21">
+        <v>718</v>
+      </c>
+      <c r="Q21">
+        <v>978</v>
+      </c>
+      <c r="R21">
+        <v>0.28199999999999997</v>
+      </c>
+      <c r="S21">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="T21">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="U21">
+        <v>0.81899999999999995</v>
+      </c>
+      <c r="V21">
+        <v>110</v>
+      </c>
+      <c r="W21">
+        <v>2521</v>
+      </c>
+      <c r="X21">
+        <v>137</v>
+      </c>
+      <c r="Y21">
+        <v>55</v>
+      </c>
+      <c r="Z21">
+        <v>22</v>
+      </c>
+      <c r="AA21">
+        <v>53</v>
+      </c>
+      <c r="AB21">
+        <v>47</v>
+      </c>
+      <c r="AC21">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22">
+        <v>42</v>
+      </c>
+      <c r="C22">
+        <v>28.7</v>
+      </c>
+      <c r="D22">
+        <v>5.51</v>
+      </c>
+      <c r="E22">
+        <v>162</v>
+      </c>
+      <c r="F22">
+        <v>6442</v>
+      </c>
+      <c r="G22">
+        <v>5519</v>
+      </c>
+      <c r="H22">
+        <v>893</v>
+      </c>
+      <c r="I22">
+        <v>1430</v>
+      </c>
+      <c r="J22">
+        <v>287</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>235</v>
+      </c>
+      <c r="M22">
+        <v>845</v>
+      </c>
+      <c r="N22">
+        <v>70</v>
+      </c>
+      <c r="O22">
+        <v>37</v>
+      </c>
+      <c r="P22">
+        <v>770</v>
+      </c>
+      <c r="Q22">
+        <v>1129</v>
+      </c>
+      <c r="R22">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="S22">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="T22">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="U22">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="V22">
+        <v>109</v>
+      </c>
+      <c r="W22">
+        <v>2462</v>
+      </c>
+      <c r="X22">
+        <v>129</v>
+      </c>
+      <c r="Y22">
+        <v>71</v>
+      </c>
+      <c r="Z22">
+        <v>39</v>
+      </c>
+      <c r="AA22">
+        <v>41</v>
+      </c>
+      <c r="AB22">
+        <v>32</v>
+      </c>
+      <c r="AC22">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23">
+        <v>41</v>
+      </c>
+      <c r="C23">
+        <v>28.2</v>
+      </c>
+      <c r="D23">
+        <v>5.19</v>
+      </c>
+      <c r="E23">
+        <v>162</v>
+      </c>
+      <c r="F23">
+        <v>6386</v>
+      </c>
+      <c r="G23">
+        <v>5598</v>
+      </c>
+      <c r="H23">
+        <v>841</v>
+      </c>
+      <c r="I23">
+        <v>1539</v>
+      </c>
+      <c r="J23">
+        <v>302</v>
+      </c>
+      <c r="K23">
+        <v>44</v>
+      </c>
+      <c r="L23">
+        <v>161</v>
+      </c>
+      <c r="M23">
+        <v>797</v>
+      </c>
+      <c r="N23">
+        <v>125</v>
+      </c>
+      <c r="O23">
+        <v>35</v>
+      </c>
+      <c r="P23">
+        <v>631</v>
+      </c>
+      <c r="Q23">
+        <v>1081</v>
+      </c>
+      <c r="R23">
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="S23">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="T23">
+        <v>0.43099999999999999</v>
+      </c>
+      <c r="U23">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="V23">
+        <v>94</v>
+      </c>
+      <c r="W23">
+        <v>2412</v>
+      </c>
+      <c r="X23">
+        <v>127</v>
+      </c>
+      <c r="Y23">
+        <v>46</v>
+      </c>
+      <c r="Z23">
+        <v>70</v>
+      </c>
+      <c r="AA23">
+        <v>41</v>
+      </c>
+      <c r="AB23">
+        <v>37</v>
+      </c>
+      <c r="AC23">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24">
+        <v>45</v>
+      </c>
+      <c r="C24">
+        <v>28.3</v>
+      </c>
+      <c r="D24">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E24">
+        <v>161</v>
+      </c>
+      <c r="F24">
+        <v>6234</v>
+      </c>
+      <c r="G24">
+        <v>5468</v>
+      </c>
+      <c r="H24">
+        <v>775</v>
+      </c>
+      <c r="I24">
+        <v>1417</v>
+      </c>
+      <c r="J24">
+        <v>282</v>
+      </c>
+      <c r="K24">
+        <v>40</v>
+      </c>
+      <c r="L24">
+        <v>171</v>
+      </c>
+      <c r="M24">
+        <v>735</v>
+      </c>
+      <c r="N24">
+        <v>112</v>
+      </c>
+      <c r="O24">
+        <v>44</v>
+      </c>
+      <c r="P24">
+        <v>573</v>
+      </c>
+      <c r="Q24">
+        <v>1197</v>
+      </c>
+      <c r="R24">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="S24">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="T24">
+        <v>0.41899999999999998</v>
+      </c>
+      <c r="U24">
+        <v>0.753</v>
+      </c>
+      <c r="V24">
+        <v>89</v>
+      </c>
+      <c r="W24">
+        <v>2292</v>
+      </c>
+      <c r="X24">
+        <v>111</v>
+      </c>
+      <c r="Y24">
+        <v>60</v>
+      </c>
+      <c r="Z24">
+        <v>87</v>
+      </c>
+      <c r="AA24">
+        <v>45</v>
+      </c>
+      <c r="AB24">
+        <v>40</v>
+      </c>
+      <c r="AC24">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B25">
+        <v>41</v>
+      </c>
+      <c r="C25">
+        <v>29.7</v>
+      </c>
+      <c r="D25">
+        <v>4.38</v>
+      </c>
+      <c r="E25">
+        <v>162</v>
+      </c>
+      <c r="F25">
+        <v>6136</v>
+      </c>
+      <c r="G25">
+        <v>5394</v>
+      </c>
+      <c r="H25">
+        <v>710</v>
+      </c>
+      <c r="I25">
+        <v>1360</v>
+      </c>
+      <c r="J25">
+        <v>256</v>
+      </c>
+      <c r="K25">
+        <v>22</v>
+      </c>
+      <c r="L25">
+        <v>153</v>
+      </c>
+      <c r="M25">
+        <v>671</v>
+      </c>
+      <c r="N25">
+        <v>174</v>
+      </c>
+      <c r="O25">
+        <v>67</v>
+      </c>
+      <c r="P25">
+        <v>631</v>
+      </c>
+      <c r="Q25">
+        <v>1169</v>
+      </c>
+      <c r="R25">
+        <v>0.252</v>
+      </c>
+      <c r="S25">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="T25">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="U25">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="V25">
+        <v>90</v>
+      </c>
+      <c r="W25">
+        <v>2119</v>
+      </c>
+      <c r="X25">
+        <v>132</v>
+      </c>
+      <c r="Y25">
+        <v>35</v>
+      </c>
+      <c r="Z25">
+        <v>36</v>
+      </c>
+      <c r="AA25">
+        <v>40</v>
+      </c>
+      <c r="AB25">
+        <v>31</v>
+      </c>
+      <c r="AC25">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26">
+        <v>51</v>
+      </c>
+      <c r="C26">
+        <v>29.2</v>
+      </c>
+      <c r="D26">
+        <v>5.3</v>
+      </c>
+      <c r="E26">
+        <v>162</v>
+      </c>
+      <c r="F26">
+        <v>6310</v>
+      </c>
+      <c r="G26">
+        <v>5572</v>
+      </c>
+      <c r="H26">
+        <v>859</v>
+      </c>
+      <c r="I26">
+        <v>1499</v>
+      </c>
+      <c r="J26">
+        <v>263</v>
+      </c>
+      <c r="K26">
+        <v>21</v>
+      </c>
+      <c r="L26">
+        <v>244</v>
+      </c>
+      <c r="M26">
+        <v>825</v>
+      </c>
+      <c r="N26">
+        <v>130</v>
+      </c>
+      <c r="O26">
+        <v>45</v>
+      </c>
+      <c r="P26">
+        <v>610</v>
+      </c>
+      <c r="Q26">
+        <v>1095</v>
+      </c>
+      <c r="R26">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="S26">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="T26">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="U26">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="V26">
+        <v>100</v>
+      </c>
+      <c r="W26">
+        <v>2536</v>
+      </c>
+      <c r="X26">
+        <v>114</v>
+      </c>
+      <c r="Y26">
+        <v>42</v>
+      </c>
+      <c r="Z26">
+        <v>38</v>
+      </c>
+      <c r="AA26">
+        <v>48</v>
+      </c>
+      <c r="AB26">
+        <v>38</v>
+      </c>
+      <c r="AC26">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>984</v>
+      </c>
+      <c r="B27">
+        <v>35</v>
+      </c>
+      <c r="C27">
+        <v>30.2</v>
+      </c>
+      <c r="D27">
+        <v>5.38</v>
+      </c>
+      <c r="E27">
+        <v>162</v>
+      </c>
+      <c r="F27">
+        <v>6449</v>
+      </c>
+      <c r="G27">
+        <v>5563</v>
+      </c>
+      <c r="H27">
+        <v>872</v>
+      </c>
+      <c r="I27">
+        <v>1507</v>
+      </c>
+      <c r="J27">
+        <v>307</v>
+      </c>
+      <c r="K27">
+        <v>18</v>
+      </c>
+      <c r="L27">
+        <v>188</v>
+      </c>
+      <c r="M27">
+        <v>828</v>
+      </c>
+      <c r="N27">
+        <v>109</v>
+      </c>
+      <c r="O27">
+        <v>56</v>
+      </c>
+      <c r="P27">
+        <v>696</v>
+      </c>
+      <c r="Q27">
+        <v>1028</v>
+      </c>
+      <c r="R27">
+        <v>0.27100000000000002</v>
+      </c>
+      <c r="S27">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="T27">
+        <v>0.434</v>
+      </c>
+      <c r="U27">
+        <v>0.79</v>
+      </c>
+      <c r="V27">
+        <v>104</v>
+      </c>
+      <c r="W27">
+        <v>2414</v>
+      </c>
+      <c r="X27">
+        <v>129</v>
+      </c>
+      <c r="Y27">
+        <v>60</v>
+      </c>
+      <c r="Z27">
+        <v>87</v>
+      </c>
+      <c r="AA27">
+        <v>42</v>
+      </c>
+      <c r="AB27">
+        <v>40</v>
+      </c>
+      <c r="AC27">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>42</v>
+      </c>
+      <c r="C28">
+        <v>28.6</v>
+      </c>
+      <c r="D28">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E28">
+        <v>161</v>
+      </c>
+      <c r="F28">
+        <v>6354</v>
+      </c>
+      <c r="G28">
+        <v>5570</v>
+      </c>
+      <c r="H28">
+        <v>809</v>
+      </c>
+      <c r="I28">
+        <v>1461</v>
+      </c>
+      <c r="J28">
+        <v>274</v>
+      </c>
+      <c r="K28">
+        <v>27</v>
+      </c>
+      <c r="L28">
+        <v>194</v>
+      </c>
+      <c r="M28">
+        <v>763</v>
+      </c>
+      <c r="N28">
+        <v>134</v>
+      </c>
+      <c r="O28">
+        <v>48</v>
+      </c>
+      <c r="P28">
+        <v>613</v>
+      </c>
+      <c r="Q28">
+        <v>1202</v>
+      </c>
+      <c r="R28">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="S28">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="T28">
+        <v>0.42599999999999999</v>
+      </c>
+      <c r="U28">
+        <v>0.76400000000000001</v>
+      </c>
+      <c r="V28">
+        <v>92</v>
+      </c>
+      <c r="W28">
+        <v>2371</v>
+      </c>
+      <c r="X28">
+        <v>110</v>
+      </c>
+      <c r="Y28">
+        <v>51</v>
+      </c>
+      <c r="Z28">
+        <v>75</v>
+      </c>
+      <c r="AA28">
+        <v>44</v>
+      </c>
+      <c r="AB28">
+        <v>51</v>
+      </c>
+      <c r="AC28">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B29">
+        <v>46</v>
+      </c>
+      <c r="C29">
+        <v>30.1</v>
+      </c>
+      <c r="D29">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E29">
+        <v>162</v>
+      </c>
+      <c r="F29">
+        <v>6272</v>
+      </c>
+      <c r="G29">
+        <v>5586</v>
+      </c>
+      <c r="H29">
+        <v>772</v>
+      </c>
+      <c r="I29">
+        <v>1531</v>
+      </c>
+      <c r="J29">
+        <v>272</v>
+      </c>
+      <c r="K29">
+        <v>29</v>
+      </c>
+      <c r="L29">
+        <v>145</v>
+      </c>
+      <c r="M29">
+        <v>728</v>
+      </c>
+      <c r="N29">
+        <v>73</v>
+      </c>
+      <c r="O29">
+        <v>49</v>
+      </c>
+      <c r="P29">
+        <v>544</v>
+      </c>
+      <c r="Q29">
+        <v>1042</v>
+      </c>
+      <c r="R29">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="S29">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="T29">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="U29">
+        <v>0.754</v>
+      </c>
+      <c r="V29">
+        <v>92</v>
+      </c>
+      <c r="W29">
+        <v>2296</v>
+      </c>
+      <c r="X29">
+        <v>157</v>
+      </c>
+      <c r="Y29">
+        <v>64</v>
+      </c>
+      <c r="Z29">
+        <v>30</v>
+      </c>
+      <c r="AA29">
+        <v>48</v>
+      </c>
+      <c r="AB29">
+        <v>24</v>
+      </c>
+      <c r="AC29">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30">
+        <v>38</v>
+      </c>
+      <c r="C30">
+        <v>30.7</v>
+      </c>
+      <c r="D30">
+        <v>5.83</v>
+      </c>
+      <c r="E30">
+        <v>162</v>
+      </c>
+      <c r="F30">
+        <v>6389</v>
+      </c>
+      <c r="G30">
+        <v>5651</v>
+      </c>
+      <c r="H30">
+        <v>945</v>
+      </c>
+      <c r="I30">
+        <v>1653</v>
+      </c>
+      <c r="J30">
+        <v>304</v>
+      </c>
+      <c r="K30">
+        <v>29</v>
+      </c>
+      <c r="L30">
+        <v>230</v>
+      </c>
+      <c r="M30">
+        <v>897</v>
+      </c>
+      <c r="N30">
+        <v>111</v>
+      </c>
+      <c r="O30">
+        <v>54</v>
+      </c>
+      <c r="P30">
+        <v>611</v>
+      </c>
+      <c r="Q30">
+        <v>937</v>
+      </c>
+      <c r="R30">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="S30">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="T30">
+        <v>0.47899999999999998</v>
+      </c>
+      <c r="U30">
+        <v>0.84</v>
+      </c>
+      <c r="V30">
+        <v>109</v>
+      </c>
+      <c r="W30">
+        <v>2705</v>
+      </c>
+      <c r="X30">
+        <v>147</v>
+      </c>
+      <c r="Y30">
+        <v>29</v>
+      </c>
+      <c r="Z30">
+        <v>35</v>
+      </c>
+      <c r="AA30">
+        <v>62</v>
+      </c>
+      <c r="AB30">
+        <v>41</v>
+      </c>
+      <c r="AC30">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31">
+        <v>53</v>
+      </c>
+      <c r="C31">
+        <v>28.3</v>
+      </c>
+      <c r="D31">
+        <v>5.45</v>
+      </c>
+      <c r="E31">
+        <v>162</v>
+      </c>
+      <c r="F31">
+        <v>6370</v>
+      </c>
+      <c r="G31">
+        <v>5642</v>
+      </c>
+      <c r="H31">
+        <v>883</v>
+      </c>
+      <c r="I31">
+        <v>1580</v>
+      </c>
+      <c r="J31">
+        <v>337</v>
+      </c>
+      <c r="K31">
+        <v>14</v>
+      </c>
+      <c r="L31">
+        <v>212</v>
+      </c>
+      <c r="M31">
+        <v>856</v>
+      </c>
+      <c r="N31">
+        <v>119</v>
+      </c>
+      <c r="O31">
+        <v>48</v>
+      </c>
+      <c r="P31">
+        <v>578</v>
+      </c>
+      <c r="Q31">
+        <v>1077</v>
+      </c>
+      <c r="R31">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S31">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="T31">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="U31">
+        <v>0.81</v>
+      </c>
+      <c r="V31">
+        <v>105</v>
+      </c>
+      <c r="W31">
+        <v>2581</v>
+      </c>
+      <c r="X31">
+        <v>129</v>
+      </c>
+      <c r="Y31">
+        <v>76</v>
+      </c>
+      <c r="Z31">
+        <v>28</v>
+      </c>
+      <c r="AA31">
+        <v>45</v>
+      </c>
+      <c r="AB31">
+        <v>29</v>
+      </c>
+      <c r="AC31">
+        <v>1177</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>